--- a/data/cabinet_members_final.xlsx
+++ b/data/cabinet_members_final.xlsx
@@ -524,7 +524,7 @@
         <v>1815</v>
       </c>
       <c r="K2" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -566,7 +566,7 @@
         <v>1831</v>
       </c>
       <c r="K3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -612,7 +612,7 @@
         <v>1822</v>
       </c>
       <c r="K4" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>1834</v>
       </c>
       <c r="K5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         <v>1839</v>
       </c>
       <c r="K6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>1831</v>
       </c>
       <c r="K7" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>1832</v>
       </c>
       <c r="K8" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         <v>1832</v>
       </c>
       <c r="K9" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -872,7 +872,7 @@
         <v>1823</v>
       </c>
       <c r="K10" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -914,7 +914,7 @@
         <v>1809</v>
       </c>
       <c r="K11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         <v>1831</v>
       </c>
       <c r="K12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -998,7 +998,7 @@
         <v>1847</v>
       </c>
       <c r="K13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         <v>1818</v>
       </c>
       <c r="K14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1090,7 +1090,7 @@
         <v>1838</v>
       </c>
       <c r="K15" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         <v>1818</v>
       </c>
       <c r="K16" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1174,7 +1174,7 @@
         <v>1825</v>
       </c>
       <c r="K17" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>1832</v>
       </c>
       <c r="K18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>1838</v>
       </c>
       <c r="K19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         <v>1829</v>
       </c>
       <c r="K20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         <v>1819</v>
       </c>
       <c r="K21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>1824</v>
       </c>
       <c r="K22" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>1835</v>
       </c>
       <c r="K23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1480,7 +1480,7 @@
         <v>1818</v>
       </c>
       <c r="K24" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         <v>1828</v>
       </c>
       <c r="K25" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
         <v>1825</v>
       </c>
       <c r="K26" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>1826</v>
       </c>
       <c r="K27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         <v>1822</v>
       </c>
       <c r="K28" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
         <v>1842</v>
       </c>
       <c r="K29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>1824</v>
       </c>
       <c r="K30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
         <v>1836</v>
       </c>
       <c r="K31" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>1816</v>
       </c>
       <c r="K32" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>1816</v>
       </c>
       <c r="K33" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1912,7 +1912,7 @@
         <v>1836</v>
       </c>
       <c r="K34" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         <v>1815</v>
       </c>
       <c r="K35" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>1822</v>
       </c>
       <c r="K36" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2038,7 +2038,7 @@
         <v>1824</v>
       </c>
       <c r="K37" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>1838</v>
       </c>
       <c r="K38" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         <v>1840</v>
       </c>
       <c r="K39" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         <v>1837</v>
       </c>
       <c r="K40" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>1823</v>
       </c>
       <c r="K41" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>1842</v>
       </c>
       <c r="K42" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>1850</v>
       </c>
       <c r="K43" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2340,7 +2340,7 @@
         <v>1822</v>
       </c>
       <c r="K44" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         <v>1836</v>
       </c>
       <c r="K45" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         <v>1846</v>
       </c>
       <c r="K46" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         <v>1838</v>
       </c>
       <c r="K47" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>1839</v>
       </c>
       <c r="K48" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2550,7 +2550,7 @@
         <v>1840</v>
       </c>
       <c r="K49" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>1860</v>
       </c>
       <c r="K50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
         <v>1841</v>
       </c>
       <c r="K51" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>1831</v>
       </c>
       <c r="K52" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>1840</v>
       </c>
       <c r="K53" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2768,7 +2768,7 @@
         <v>1839</v>
       </c>
       <c r="K54" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2810,7 +2810,7 @@
         <v>1836</v>
       </c>
       <c r="K55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         <v>1838</v>
       </c>
       <c r="K56" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>1842</v>
       </c>
       <c r="K57" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>1843</v>
       </c>
       <c r="K58" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         <v>1844</v>
       </c>
       <c r="K59" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>1832</v>
       </c>
       <c r="K60" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         <v>1842</v>
       </c>
       <c r="K61" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>1837</v>
       </c>
       <c r="K62" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3150,7 +3150,7 @@
         <v>1831</v>
       </c>
       <c r="K63" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>1854</v>
       </c>
       <c r="K64" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>1847</v>
       </c>
       <c r="K65" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>1846</v>
       </c>
       <c r="K66" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         <v>1847</v>
       </c>
       <c r="K67" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>1840</v>
       </c>
       <c r="K68" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3406,7 +3406,7 @@
         <v>1841</v>
       </c>
       <c r="K69" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
         <v>1838</v>
       </c>
       <c r="K70" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3498,7 +3498,7 @@
         <v>1839</v>
       </c>
       <c r="K71" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>1838</v>
       </c>
       <c r="K72" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>1845</v>
       </c>
       <c r="K73" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         <v>1861</v>
       </c>
       <c r="K74" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         <v>1843</v>
       </c>
       <c r="K75" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3712,7 +3712,7 @@
         <v>1837</v>
       </c>
       <c r="K76" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3758,7 +3758,7 @@
         <v>1858</v>
       </c>
       <c r="K77" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>1853</v>
       </c>
       <c r="K78" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         <v>1845</v>
       </c>
       <c r="K79" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>1849</v>
       </c>
       <c r="K80" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>1848</v>
       </c>
       <c r="K81" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>1836</v>
       </c>
       <c r="K82" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4034,7 +4034,7 @@
         <v>1846</v>
       </c>
       <c r="K83" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>1838</v>
       </c>
       <c r="K84" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>1857</v>
       </c>
       <c r="K85" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>1858</v>
       </c>
       <c r="K86" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>1861</v>
       </c>
       <c r="K87" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         <v>1841</v>
       </c>
       <c r="K88" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>1861</v>
       </c>
       <c r="K89" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>1845</v>
       </c>
       <c r="K90" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         <v>1844</v>
       </c>
       <c r="K91" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         <v>1845</v>
       </c>
       <c r="K92" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4454,7 +4454,7 @@
         <v>1851</v>
       </c>
       <c r="K93" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4496,7 +4496,7 @@
         <v>1846</v>
       </c>
       <c r="K94" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         <v>1851</v>
       </c>
       <c r="K95" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         <v>1851</v>
       </c>
       <c r="K96" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>1861</v>
       </c>
       <c r="K97" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>1851</v>
       </c>
       <c r="K98" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4710,7 +4710,7 @@
         <v>1860</v>
       </c>
       <c r="K99" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4756,7 +4756,7 @@
         <v>1869</v>
       </c>
       <c r="K100" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>1852</v>
       </c>
       <c r="K101" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4840,7 +4840,7 @@
         <v>1852</v>
       </c>
       <c r="K102" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>1849</v>
       </c>
       <c r="K103" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>1861</v>
       </c>
       <c r="K104" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>1848</v>
       </c>
       <c r="K105" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>1853</v>
       </c>
       <c r="K106" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         <v>1863</v>
       </c>
       <c r="K107" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -5096,7 +5096,7 @@
         <v>1864</v>
       </c>
       <c r="K108" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -5150,7 +5150,7 @@
         <v>1852</v>
       </c>
       <c r="K109" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>1851</v>
       </c>
       <c r="K110" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5234,7 +5234,7 @@
         <v>1860</v>
       </c>
       <c r="K111" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>1854</v>
       </c>
       <c r="K112" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
         <v>1866</v>
       </c>
       <c r="K113" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5360,7 +5360,7 @@
         <v>1860</v>
       </c>
       <c r="K114" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5402,7 +5402,7 @@
         <v>1866</v>
       </c>
       <c r="K115" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>1846</v>
       </c>
       <c r="K116" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -5494,7 +5494,7 @@
         <v>1874</v>
       </c>
       <c r="K117" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -5540,7 +5540,7 @@
         <v>1875</v>
       </c>
       <c r="K118" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -5582,7 +5582,7 @@
         <v>1855</v>
       </c>
       <c r="K119" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>1864</v>
       </c>
       <c r="K120" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
         <v>1864</v>
       </c>
       <c r="K121" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>1858</v>
       </c>
       <c r="K122" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -5774,7 +5774,7 @@
         <v>1867</v>
       </c>
       <c r="K123" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>1861</v>
       </c>
       <c r="K124" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -5858,7 +5858,7 @@
         <v>1857</v>
       </c>
       <c r="K125" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>1874</v>
       </c>
       <c r="K126" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>1885</v>
       </c>
       <c r="K127" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>1874</v>
       </c>
       <c r="K128" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>1871</v>
       </c>
       <c r="K129" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>1873</v>
       </c>
       <c r="K130" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -6130,7 +6130,7 @@
         <v>1870</v>
       </c>
       <c r="K131" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         <v>1864</v>
       </c>
       <c r="K132" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -6222,7 +6222,7 @@
         <v>1858</v>
       </c>
       <c r="K133" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         <v>1871</v>
       </c>
       <c r="K134" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6306,7 +6306,7 @@
         <v>1861</v>
       </c>
       <c r="K135" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -6348,7 +6348,7 @@
         <v>1869</v>
       </c>
       <c r="K136" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         <v>1852</v>
       </c>
       <c r="K137" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -6432,7 +6432,7 @@
         <v>1860</v>
       </c>
       <c r="K138" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -6474,7 +6474,7 @@
         <v>1867</v>
       </c>
       <c r="K139" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -6516,7 +6516,7 @@
         <v>1857</v>
       </c>
       <c r="K140" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         <v>1874</v>
       </c>
       <c r="K141" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -6600,7 +6600,7 @@
         <v>1873</v>
       </c>
       <c r="K142" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>1869</v>
       </c>
       <c r="K143" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>1871</v>
       </c>
       <c r="K144" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -6730,7 +6730,7 @@
         <v>1873</v>
       </c>
       <c r="K145" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>1870</v>
       </c>
       <c r="K146" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>1871</v>
       </c>
       <c r="K147" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>1861</v>
       </c>
       <c r="K148" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>1852</v>
       </c>
       <c r="K149" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>1880</v>
       </c>
       <c r="K150" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
         <v>1871</v>
       </c>
       <c r="K151" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
         <v>1874</v>
       </c>
       <c r="K152" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>1869</v>
       </c>
       <c r="K153" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -7120,7 +7120,7 @@
         <v>1864</v>
       </c>
       <c r="K154" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>1874</v>
       </c>
       <c r="K155" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>1870</v>
       </c>
       <c r="K156" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -7250,7 +7250,7 @@
         <v>1875</v>
       </c>
       <c r="K157" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         <v>1877</v>
       </c>
       <c r="K158" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>1867</v>
       </c>
       <c r="K159" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
         <v>1891</v>
       </c>
       <c r="K160" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         <v>1869</v>
       </c>
       <c r="K161" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>1874</v>
       </c>
       <c r="K162" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>1868</v>
       </c>
       <c r="K163" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -7544,7 +7544,7 @@
         <v>1873</v>
       </c>
       <c r="K164" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -7590,7 +7590,7 @@
         <v>1874</v>
       </c>
       <c r="K165" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -7636,7 +7636,7 @@
         <v>1870</v>
       </c>
       <c r="K166" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>1872</v>
       </c>
       <c r="K167" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>1865</v>
       </c>
       <c r="K168" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -7762,7 +7762,7 @@
         <v>1881</v>
       </c>
       <c r="K169" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>1891</v>
       </c>
       <c r="K170" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -7846,7 +7846,7 @@
         <v>1883</v>
       </c>
       <c r="K171" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -7888,7 +7888,7 @@
         <v>1888</v>
       </c>
       <c r="K172" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -7942,7 +7942,7 @@
         <v>1873</v>
       </c>
       <c r="K173" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>1870</v>
       </c>
       <c r="K174" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>1872</v>
       </c>
       <c r="K175" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         <v>1882</v>
       </c>
       <c r="K176" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -8110,7 +8110,7 @@
         <v>1861</v>
       </c>
       <c r="K177" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -8156,7 +8156,7 @@
         <v>1886</v>
       </c>
       <c r="K178" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>1869</v>
       </c>
       <c r="K179" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -8252,7 +8252,7 @@
         <v>1895</v>
       </c>
       <c r="K180" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
         <v>1869</v>
       </c>
       <c r="K181" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>1883</v>
       </c>
       <c r="K182" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>1869</v>
       </c>
       <c r="K183" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>1879</v>
       </c>
       <c r="K184" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>1869</v>
       </c>
       <c r="K185" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>1872</v>
       </c>
       <c r="K186" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -8550,7 +8550,7 @@
         <v>1881</v>
       </c>
       <c r="K187" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         <v>1882</v>
       </c>
       <c r="K188" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -8634,7 +8634,7 @@
         <v>1899</v>
       </c>
       <c r="K189" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -8676,7 +8676,7 @@
         <v>1886</v>
       </c>
       <c r="K190" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -8722,7 +8722,7 @@
         <v>1886</v>
       </c>
       <c r="K191" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>1869</v>
       </c>
       <c r="K192" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -8818,7 +8818,7 @@
         <v>1895</v>
       </c>
       <c r="K193" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>1869</v>
       </c>
       <c r="K194" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>1883</v>
       </c>
       <c r="K195" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -8948,7 +8948,7 @@
         <v>1879</v>
       </c>
       <c r="K196" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>1872</v>
       </c>
       <c r="K197" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -9032,7 +9032,7 @@
         <v>1881</v>
       </c>
       <c r="K198" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         <v>1882</v>
       </c>
       <c r="K199" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -9116,7 +9116,7 @@
         <v>1881</v>
       </c>
       <c r="K200" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>1886</v>
       </c>
       <c r="K201" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -9200,7 +9200,7 @@
         <v>1891</v>
       </c>
       <c r="K202" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>1896</v>
       </c>
       <c r="K203" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -9284,7 +9284,7 @@
         <v>1880</v>
       </c>
       <c r="K204" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -9338,7 +9338,7 @@
         <v>1869</v>
       </c>
       <c r="K205" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         <v>1869</v>
       </c>
       <c r="K206" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
         <v>1871</v>
       </c>
       <c r="K207" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -9464,7 +9464,7 @@
         <v>1884</v>
       </c>
       <c r="K208" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -9506,7 +9506,7 @@
         <v>1889</v>
       </c>
       <c r="K209" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -9548,7 +9548,7 @@
         <v>1873</v>
       </c>
       <c r="K210" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -9590,7 +9590,7 @@
         <v>1879</v>
       </c>
       <c r="K211" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>1899</v>
       </c>
       <c r="K212" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -9682,7 +9682,7 @@
         <v>1869</v>
       </c>
       <c r="K213" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>1884</v>
       </c>
       <c r="K214" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>1890</v>
       </c>
       <c r="K215" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>1869</v>
       </c>
       <c r="K216" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -9854,7 +9854,7 @@
         <v>1871</v>
       </c>
       <c r="K217" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>1876</v>
       </c>
       <c r="K218" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         <v>1889</v>
       </c>
       <c r="K219" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -9980,7 +9980,7 @@
         <v>1873</v>
       </c>
       <c r="K220" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -10022,7 +10022,7 @@
         <v>1883</v>
       </c>
       <c r="K221" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>1881</v>
       </c>
       <c r="K222" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -10106,7 +10106,7 @@
         <v>1880</v>
       </c>
       <c r="K223" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>1892</v>
       </c>
       <c r="K224" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>1877</v>
       </c>
       <c r="K225" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>1885</v>
       </c>
       <c r="K226" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -10274,7 +10274,7 @@
         <v>1894</v>
       </c>
       <c r="K227" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -10316,7 +10316,7 @@
         <v>1871</v>
       </c>
       <c r="K228" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -10358,7 +10358,7 @@
         <v>1889</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -10404,7 +10404,7 @@
         <v>1870</v>
       </c>
       <c r="K230" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -10446,7 +10446,7 @@
         <v>1889</v>
       </c>
       <c r="K231" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -10492,7 +10492,7 @@
         <v>1899</v>
       </c>
       <c r="K232" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -10534,7 +10534,7 @@
         <v>1877</v>
       </c>
       <c r="K233" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>1880</v>
       </c>
       <c r="K234" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -10622,7 +10622,7 @@
         <v>1892</v>
       </c>
       <c r="K235" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>1877</v>
       </c>
       <c r="K236" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -10710,7 +10710,7 @@
         <v>1885</v>
       </c>
       <c r="K237" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         <v>1894</v>
       </c>
       <c r="K238" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -10794,7 +10794,7 @@
         <v>1871</v>
       </c>
       <c r="K239" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -10844,7 +10844,7 @@
         <v>1889</v>
       </c>
       <c r="K240" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -10886,7 +10886,7 @@
         <v>1889</v>
       </c>
       <c r="K241" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -10932,7 +10932,7 @@
         <v>1899</v>
       </c>
       <c r="K242" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         <v>1877</v>
       </c>
       <c r="K243" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -11016,7 +11016,7 @@
         <v>1880</v>
       </c>
       <c r="K244" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -11058,7 +11058,7 @@
         <v>1901</v>
       </c>
       <c r="K245" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>1894</v>
       </c>
       <c r="K246" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -11142,7 +11142,7 @@
         <v>1894</v>
       </c>
       <c r="K247" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -11192,7 +11192,7 @@
         <v>1877</v>
       </c>
       <c r="K248" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>1885</v>
       </c>
       <c r="K249" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>1894</v>
       </c>
       <c r="K250" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>1871</v>
       </c>
       <c r="K251" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         <v>1889</v>
       </c>
       <c r="K252" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -11430,7 +11430,7 @@
         <v>1904</v>
       </c>
       <c r="K253" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -11472,7 +11472,7 @@
         <v>1885</v>
       </c>
       <c r="K254" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -11518,7 +11518,7 @@
         <v>1882</v>
       </c>
       <c r="K255" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         <v>1885</v>
       </c>
       <c r="K256" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>1881</v>
       </c>
       <c r="K257" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>1887</v>
       </c>
       <c r="K258" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -11694,7 +11694,7 @@
         <v>1899</v>
       </c>
       <c r="K259" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>1886</v>
       </c>
       <c r="K260" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>1896</v>
       </c>
       <c r="K261" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         <v>1877</v>
       </c>
       <c r="K262" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -11870,7 +11870,7 @@
         <v>1904</v>
       </c>
       <c r="K263" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         <v>1901</v>
       </c>
       <c r="K264" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>1882</v>
       </c>
       <c r="K265" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>1902</v>
       </c>
       <c r="K266" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -12046,7 +12046,7 @@
         <v>1885</v>
       </c>
       <c r="K267" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -12088,7 +12088,7 @@
         <v>1894</v>
       </c>
       <c r="K268" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -12134,7 +12134,7 @@
         <v>1899</v>
       </c>
       <c r="K269" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>1871</v>
       </c>
       <c r="K270" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         <v>1905</v>
       </c>
       <c r="K271" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>1885</v>
       </c>
       <c r="K272" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -12310,7 +12310,7 @@
         <v>1885</v>
       </c>
       <c r="K273" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>1903</v>
       </c>
       <c r="K274" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -12398,7 +12398,7 @@
         <v>1885</v>
       </c>
       <c r="K275" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>1898</v>
       </c>
       <c r="K276" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>1905</v>
       </c>
       <c r="K277" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -12532,7 +12532,7 @@
         <v>1885</v>
       </c>
       <c r="K278" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>1892</v>
       </c>
       <c r="K279" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -12624,7 +12624,7 @@
         <v>1902</v>
       </c>
       <c r="K280" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -12670,7 +12670,7 @@
         <v>1902</v>
       </c>
       <c r="K281" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         <v>1894</v>
       </c>
       <c r="K282" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         <v>1894</v>
       </c>
       <c r="K283" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>1903</v>
       </c>
       <c r="K284" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -12854,7 +12854,7 @@
         <v>1903</v>
       </c>
       <c r="K285" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>1901</v>
       </c>
       <c r="K286" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         <v>1908</v>
       </c>
       <c r="K287" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>1888</v>
       </c>
       <c r="K288" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -13034,7 +13034,7 @@
         <v>1886</v>
       </c>
       <c r="K289" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>1892</v>
       </c>
       <c r="K290" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>1902</v>
       </c>
       <c r="K291" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -13160,7 +13160,7 @@
         <v>1915</v>
       </c>
       <c r="K292" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>1885</v>
       </c>
       <c r="K293" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>1895</v>
       </c>
       <c r="K294" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -13286,7 +13286,7 @@
         <v>1898</v>
       </c>
       <c r="K295" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -13340,7 +13340,7 @@
         <v>1902</v>
       </c>
       <c r="K296" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -13382,7 +13382,7 @@
         <v>1902</v>
       </c>
       <c r="K297" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>1892</v>
       </c>
       <c r="K298" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -13466,7 +13466,7 @@
         <v>1894</v>
       </c>
       <c r="K299" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>1903</v>
       </c>
       <c r="K300" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>1891</v>
       </c>
       <c r="K301" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -13604,7 +13604,7 @@
         <v>1894</v>
       </c>
       <c r="K302" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>1899</v>
       </c>
       <c r="K303" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -13696,7 +13696,7 @@
         <v>1902</v>
       </c>
       <c r="K304" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -13738,7 +13738,7 @@
         <v>1894</v>
       </c>
       <c r="K305" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         <v>1896</v>
       </c>
       <c r="K306" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -13826,7 +13826,7 @@
         <v>1908</v>
       </c>
       <c r="K307" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -13872,7 +13872,7 @@
         <v>1886</v>
       </c>
       <c r="K308" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -13914,7 +13914,7 @@
         <v>1900</v>
       </c>
       <c r="K309" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>1896</v>
       </c>
       <c r="K310" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -13998,7 +13998,7 @@
         <v>1897</v>
       </c>
       <c r="K311" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -14040,7 +14040,7 @@
         <v>1892</v>
       </c>
       <c r="K312" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -14082,7 +14082,7 @@
         <v>1885</v>
       </c>
       <c r="K313" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -14124,7 +14124,7 @@
         <v>1915</v>
       </c>
       <c r="K314" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>1895</v>
       </c>
       <c r="K315" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -14208,7 +14208,7 @@
         <v>1902</v>
       </c>
       <c r="K316" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>1901</v>
       </c>
       <c r="K317" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>1899</v>
       </c>
       <c r="K318" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -14334,7 +14334,7 @@
         <v>1913</v>
       </c>
       <c r="K319" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>1891</v>
       </c>
       <c r="K320" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -14418,7 +14418,7 @@
         <v>1906</v>
       </c>
       <c r="K321" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -14460,7 +14460,7 @@
         <v>1914</v>
       </c>
       <c r="K322" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -14510,7 +14510,7 @@
         <v>1894</v>
       </c>
       <c r="K323" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -14564,7 +14564,7 @@
         <v>1882</v>
       </c>
       <c r="K324" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>1894</v>
       </c>
       <c r="K325" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -14648,7 +14648,7 @@
         <v>1911</v>
       </c>
       <c r="K326" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>1899</v>
       </c>
       <c r="K327" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -14732,7 +14732,7 @@
         <v>1891</v>
       </c>
       <c r="K328" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>1908</v>
       </c>
       <c r="K329" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -14816,7 +14816,7 @@
         <v>1906</v>
       </c>
       <c r="K330" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -14862,7 +14862,7 @@
         <v>1899</v>
       </c>
       <c r="K331" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -14904,7 +14904,7 @@
         <v>1886</v>
       </c>
       <c r="K332" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>1909</v>
       </c>
       <c r="K333" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -14988,7 +14988,7 @@
         <v>1897</v>
       </c>
       <c r="K334" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -15034,7 +15034,7 @@
         <v>1892</v>
       </c>
       <c r="K335" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -15080,7 +15080,7 @@
         <v>1885</v>
       </c>
       <c r="K336" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -15122,7 +15122,7 @@
         <v>1900</v>
       </c>
       <c r="K337" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -15164,7 +15164,7 @@
         <v>1915</v>
       </c>
       <c r="K338" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -15206,7 +15206,7 @@
         <v>1895</v>
       </c>
       <c r="K339" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -15248,7 +15248,7 @@
         <v>1902</v>
       </c>
       <c r="K340" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -15290,7 +15290,7 @@
         <v>1902</v>
       </c>
       <c r="K341" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -15336,7 +15336,7 @@
         <v>1901</v>
       </c>
       <c r="K342" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>1899</v>
       </c>
       <c r="K343" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>1886</v>
       </c>
       <c r="K344" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -15462,7 +15462,7 @@
         <v>1911</v>
       </c>
       <c r="K345" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -15512,7 +15512,7 @@
         <v>1891</v>
       </c>
       <c r="K346" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>1896</v>
       </c>
       <c r="K347" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -15596,7 +15596,7 @@
         <v>1897</v>
       </c>
       <c r="K348" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>1914</v>
       </c>
       <c r="K349" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -15680,7 +15680,7 @@
         <v>1894</v>
       </c>
       <c r="K350" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -15722,7 +15722,7 @@
         <v>1905</v>
       </c>
       <c r="K351" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -15764,7 +15764,7 @@
         <v>1900</v>
       </c>
       <c r="K352" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -15806,7 +15806,7 @@
         <v>1894</v>
       </c>
       <c r="K353" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>1899</v>
       </c>
       <c r="K354" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -15890,7 +15890,7 @@
         <v>1908</v>
       </c>
       <c r="K355" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -15932,7 +15932,7 @@
         <v>1899</v>
       </c>
       <c r="K356" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -15978,7 +15978,7 @@
         <v>1886</v>
       </c>
       <c r="K357" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -16020,7 +16020,7 @@
         <v>1887</v>
       </c>
       <c r="K358" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>1892</v>
       </c>
       <c r="K359" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -16104,7 +16104,7 @@
         <v>1906</v>
       </c>
       <c r="K360" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>1921</v>
       </c>
       <c r="K361" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
         <v>1918</v>
       </c>
       <c r="K362" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -16234,7 +16234,7 @@
         <v>1881</v>
       </c>
       <c r="K363" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>1902</v>
       </c>
       <c r="K364" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>1901</v>
       </c>
       <c r="K365" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -16372,7 +16372,7 @@
         <v>1905</v>
       </c>
       <c r="K366" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>1899</v>
       </c>
       <c r="K367" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>1911</v>
       </c>
       <c r="K368" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -16498,7 +16498,7 @@
         <v>1906</v>
       </c>
       <c r="K369" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -16540,7 +16540,7 @@
         <v>1909</v>
       </c>
       <c r="K370" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>1902</v>
       </c>
       <c r="K371" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -16624,7 +16624,7 @@
         <v>1914</v>
       </c>
       <c r="K372" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -16666,7 +16666,7 @@
         <v>1884</v>
       </c>
       <c r="K373" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>1897</v>
       </c>
       <c r="K374" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -16750,7 +16750,7 @@
         <v>1911</v>
       </c>
       <c r="K375" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -16796,7 +16796,7 @@
         <v>1905</v>
       </c>
       <c r="K376" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>1905</v>
       </c>
       <c r="K377" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>1899</v>
       </c>
       <c r="K378" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>1908</v>
       </c>
       <c r="K379" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -16964,7 +16964,7 @@
         <v>1899</v>
       </c>
       <c r="K380" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>1886</v>
       </c>
       <c r="K381" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -17048,7 +17048,7 @@
         <v>1892</v>
       </c>
       <c r="K382" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -17090,7 +17090,7 @@
         <v>1906</v>
       </c>
       <c r="K383" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -17132,7 +17132,7 @@
         <v>1916</v>
       </c>
       <c r="K384" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -17174,7 +17174,7 @@
         <v>1921</v>
       </c>
       <c r="K385" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -17216,7 +17216,7 @@
         <v>1912</v>
       </c>
       <c r="K386" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>1918</v>
       </c>
       <c r="K387" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>1912</v>
       </c>
       <c r="K388" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -17342,7 +17342,7 @@
         <v>1918</v>
       </c>
       <c r="K389" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>1911</v>
       </c>
       <c r="K390" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         <v>1905</v>
       </c>
       <c r="K391" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>1904</v>
       </c>
       <c r="K392" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -17514,7 +17514,7 @@
         <v>1909</v>
       </c>
       <c r="K393" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -17556,7 +17556,7 @@
         <v>1902</v>
       </c>
       <c r="K394" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>1909</v>
       </c>
       <c r="K395" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -17640,7 +17640,7 @@
         <v>1914</v>
       </c>
       <c r="K396" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -17682,7 +17682,7 @@
         <v>1911</v>
       </c>
       <c r="K397" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -17732,7 +17732,7 @@
         <v>1905</v>
       </c>
       <c r="K398" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -17778,7 +17778,7 @@
         <v>1905</v>
       </c>
       <c r="K399" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         <v>1893</v>
       </c>
       <c r="K400" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -17862,7 +17862,7 @@
         <v>1921</v>
       </c>
       <c r="K401" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -17904,7 +17904,7 @@
         <v>1903</v>
       </c>
       <c r="K402" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>1908</v>
       </c>
       <c r="K403" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -17992,7 +17992,7 @@
         <v>1906</v>
       </c>
       <c r="K404" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -18034,7 +18034,7 @@
         <v>1899</v>
       </c>
       <c r="K405" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>1886</v>
       </c>
       <c r="K406" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -18118,7 +18118,7 @@
         <v>1921</v>
       </c>
       <c r="K407" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -18164,7 +18164,7 @@
         <v>1918</v>
       </c>
       <c r="K408" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -18210,7 +18210,7 @@
         <v>1902</v>
       </c>
       <c r="K409" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -18252,7 +18252,7 @@
         <v>1912</v>
       </c>
       <c r="K410" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>1905</v>
       </c>
       <c r="K411" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>1909</v>
       </c>
       <c r="K412" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -18378,7 +18378,7 @@
         <v>1909</v>
       </c>
       <c r="K413" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>1914</v>
       </c>
       <c r="K414" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>1911</v>
       </c>
       <c r="K415" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>1905</v>
       </c>
       <c r="K416" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -18550,7 +18550,7 @@
         <v>1921</v>
       </c>
       <c r="K417" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -18592,7 +18592,7 @@
         <v>1903</v>
       </c>
       <c r="K418" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
         <v>1906</v>
       </c>
       <c r="K419" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>1899</v>
       </c>
       <c r="K420" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>1901</v>
       </c>
       <c r="K421" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -18768,7 +18768,7 @@
         <v>1912</v>
       </c>
       <c r="K422" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -18810,7 +18810,7 @@
         <v>1915</v>
       </c>
       <c r="K423" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -18852,7 +18852,7 @@
         <v>1912</v>
       </c>
       <c r="K424" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>1921</v>
       </c>
       <c r="K425" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -18940,7 +18940,7 @@
         <v>1907</v>
       </c>
       <c r="K426" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -18982,7 +18982,7 @@
         <v>1910</v>
       </c>
       <c r="K427" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -19028,7 +19028,7 @@
         <v>1901</v>
       </c>
       <c r="K428" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -19070,7 +19070,7 @@
         <v>1918</v>
       </c>
       <c r="K429" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -19120,7 +19120,7 @@
         <v>1912</v>
       </c>
       <c r="K430" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -19162,7 +19162,7 @@
         <v>1905</v>
       </c>
       <c r="K431" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -19204,7 +19204,7 @@
         <v>1918</v>
       </c>
       <c r="K432" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -19246,7 +19246,7 @@
         <v>1918</v>
       </c>
       <c r="K433" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -19288,7 +19288,7 @@
         <v>1911</v>
       </c>
       <c r="K434" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -19330,7 +19330,7 @@
         <v>1918</v>
       </c>
       <c r="K435" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -19384,7 +19384,7 @@
         <v>1911</v>
       </c>
       <c r="K436" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -19426,7 +19426,7 @@
         <v>1920</v>
       </c>
       <c r="K437" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -19468,7 +19468,7 @@
         <v>1909</v>
       </c>
       <c r="K438" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -19514,7 +19514,7 @@
         <v>1914</v>
       </c>
       <c r="K439" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -19556,7 +19556,7 @@
         <v>1911</v>
       </c>
       <c r="K440" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>1895</v>
       </c>
       <c r="K441" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -19640,7 +19640,7 @@
         <v>1898</v>
       </c>
       <c r="K442" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>1921</v>
       </c>
       <c r="K443" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -19724,7 +19724,7 @@
         <v>1908</v>
       </c>
       <c r="K444" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -19766,7 +19766,7 @@
         <v>1911</v>
       </c>
       <c r="K445" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>1917</v>
       </c>
       <c r="K446" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>1918</v>
       </c>
       <c r="K447" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>1920</v>
       </c>
       <c r="K448" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -19946,7 +19946,7 @@
         <v>1915</v>
       </c>
       <c r="K449" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>1921</v>
       </c>
       <c r="K450" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -20030,7 +20030,7 @@
         <v>1907</v>
       </c>
       <c r="K451" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -20072,7 +20072,7 @@
         <v>1921</v>
       </c>
       <c r="K452" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -20114,7 +20114,7 @@
         <v>1915</v>
       </c>
       <c r="K453" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -20156,7 +20156,7 @@
         <v>1928</v>
       </c>
       <c r="K454" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -20198,7 +20198,7 @@
         <v>1915</v>
       </c>
       <c r="K455" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -20240,7 +20240,7 @@
         <v>1905</v>
       </c>
       <c r="K456" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -20282,7 +20282,7 @@
         <v>1918</v>
       </c>
       <c r="K457" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -20324,7 +20324,7 @@
         <v>1930</v>
       </c>
       <c r="K458" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>1909</v>
       </c>
       <c r="K459" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>1909</v>
       </c>
       <c r="K460" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -20450,7 +20450,7 @@
         <v>1921</v>
       </c>
       <c r="K461" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>1911</v>
       </c>
       <c r="K462" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -20534,7 +20534,7 @@
         <v>1904</v>
       </c>
       <c r="K463" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -20576,7 +20576,7 @@
         <v>1921</v>
       </c>
       <c r="K464" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>1911</v>
       </c>
       <c r="K465" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -20660,7 +20660,7 @@
         <v>1911</v>
       </c>
       <c r="K466" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>1911</v>
       </c>
       <c r="K467" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>1924</v>
       </c>
       <c r="K468" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -20786,7 +20786,7 @@
         <v>1913</v>
       </c>
       <c r="K469" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -20828,7 +20828,7 @@
         <v>1911</v>
       </c>
       <c r="K470" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -20870,7 +20870,7 @@
         <v>1917</v>
       </c>
       <c r="K471" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -20912,7 +20912,7 @@
         <v>1918</v>
       </c>
       <c r="K472" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -20962,7 +20962,7 @@
         <v>1920</v>
       </c>
       <c r="K473" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>1915</v>
       </c>
       <c r="K474" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -21046,7 +21046,7 @@
         <v>1913</v>
       </c>
       <c r="K475" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -21088,7 +21088,7 @@
         <v>1910</v>
       </c>
       <c r="K476" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -21134,7 +21134,7 @@
         <v>1916</v>
       </c>
       <c r="K477" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>1921</v>
       </c>
       <c r="K478" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>1916</v>
       </c>
       <c r="K479" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>1912</v>
       </c>
       <c r="K480" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>1915</v>
       </c>
       <c r="K481" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -21348,7 +21348,7 @@
         <v>1915</v>
       </c>
       <c r="K482" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -21390,7 +21390,7 @@
         <v>1915</v>
       </c>
       <c r="K483" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -21432,7 +21432,7 @@
         <v>1929</v>
       </c>
       <c r="K484" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -21474,7 +21474,7 @@
         <v>1919</v>
       </c>
       <c r="K485" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -21516,7 +21516,7 @@
         <v>1930</v>
       </c>
       <c r="K486" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>1909</v>
       </c>
       <c r="K487" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -21600,7 +21600,7 @@
         <v>1914</v>
       </c>
       <c r="K488" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -21642,7 +21642,7 @@
         <v>1921</v>
       </c>
       <c r="K489" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>1919</v>
       </c>
       <c r="K490" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -21726,7 +21726,7 @@
         <v>1911</v>
       </c>
       <c r="K491" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -21772,7 +21772,7 @@
         <v>1905</v>
       </c>
       <c r="K492" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -21814,7 +21814,7 @@
         <v>1904</v>
       </c>
       <c r="K493" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>1906</v>
       </c>
       <c r="K494" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -21898,7 +21898,7 @@
         <v>1919</v>
       </c>
       <c r="K495" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -21940,7 +21940,7 @@
         <v>1924</v>
       </c>
       <c r="K496" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -21986,7 +21986,7 @@
         <v>1924</v>
       </c>
       <c r="K497" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -22028,7 +22028,7 @@
         <v>1910</v>
       </c>
       <c r="K498" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -22070,7 +22070,7 @@
         <v>1911</v>
       </c>
       <c r="K499" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -22112,7 +22112,7 @@
         <v>1922</v>
       </c>
       <c r="K500" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -22154,7 +22154,7 @@
         <v>1913</v>
       </c>
       <c r="K501" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -22204,7 +22204,7 @@
         <v>1920</v>
       </c>
       <c r="K502" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>1915</v>
       </c>
       <c r="K503" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>1921</v>
       </c>
       <c r="K504" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -22330,7 +22330,7 @@
         <v>1916</v>
       </c>
       <c r="K505" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>1901</v>
       </c>
       <c r="K506" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>1918</v>
       </c>
       <c r="K507" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>1915</v>
       </c>
       <c r="K508" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
         <v>1915</v>
       </c>
       <c r="K509" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>1915</v>
       </c>
       <c r="K510" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -22590,7 +22590,7 @@
         <v>1912</v>
       </c>
       <c r="K511" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -22632,7 +22632,7 @@
         <v>1919</v>
       </c>
       <c r="K512" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -22674,7 +22674,7 @@
         <v>1930</v>
       </c>
       <c r="K513" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -22716,7 +22716,7 @@
         <v>1909</v>
       </c>
       <c r="K514" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -22758,7 +22758,7 @@
         <v>1921</v>
       </c>
       <c r="K515" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>
@@ -22800,7 +22800,7 @@
         <v>1911</v>
       </c>
       <c r="K516" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L516" t="inlineStr">
         <is>
@@ -22846,7 +22846,7 @@
         <v>1904</v>
       </c>
       <c r="K517" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L517" t="inlineStr">
         <is>
@@ -22888,7 +22888,7 @@
         <v>1906</v>
       </c>
       <c r="K518" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L518" t="inlineStr">
         <is>
@@ -22930,7 +22930,7 @@
         <v>1922</v>
       </c>
       <c r="K519" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L519" t="inlineStr">
         <is>
@@ -22972,7 +22972,7 @@
         <v>1906</v>
       </c>
       <c r="K520" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L520" t="inlineStr">
         <is>
@@ -23014,7 +23014,7 @@
         <v>1911</v>
       </c>
       <c r="K521" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L521" t="inlineStr">
         <is>
@@ -23056,7 +23056,7 @@
         <v>1913</v>
       </c>
       <c r="K522" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L522" t="inlineStr">
         <is>
@@ -23098,7 +23098,7 @@
         <v>1912</v>
       </c>
       <c r="K523" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L523" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>1920</v>
       </c>
       <c r="K524" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L524" t="inlineStr">
         <is>
@@ -23182,7 +23182,7 @@
         <v>1926</v>
       </c>
       <c r="K525" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L525" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>1915</v>
       </c>
       <c r="K526" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L526" t="inlineStr">
         <is>
@@ -23266,7 +23266,7 @@
         <v>1909</v>
       </c>
       <c r="K527" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L527" t="inlineStr">
         <is>
@@ -23308,7 +23308,7 @@
         <v>1922</v>
       </c>
       <c r="K528" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L528" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>1927</v>
       </c>
       <c r="K529" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L529" t="inlineStr">
         <is>
@@ -23396,7 +23396,7 @@
         <v>1924</v>
       </c>
       <c r="K530" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L530" t="inlineStr">
         <is>
@@ -23446,7 +23446,7 @@
         <v>1921</v>
       </c>
       <c r="K531" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L531" t="inlineStr">
         <is>
@@ -23488,7 +23488,7 @@
         <v>1917</v>
       </c>
       <c r="K532" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L532" t="inlineStr">
         <is>
@@ -23534,7 +23534,7 @@
         <v>1912</v>
       </c>
       <c r="K533" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L533" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>1922</v>
       </c>
       <c r="K534" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L534" t="inlineStr">
         <is>
@@ -23618,7 +23618,7 @@
         <v>1930</v>
       </c>
       <c r="K535" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L535" t="inlineStr">
         <is>
@@ -23660,7 +23660,7 @@
         <v>1914</v>
       </c>
       <c r="K536" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L536" t="inlineStr">
         <is>
@@ -23702,7 +23702,7 @@
         <v>1915</v>
       </c>
       <c r="K537" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L537" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>1910</v>
       </c>
       <c r="K538" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L538" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
         <v>1921</v>
       </c>
       <c r="K539" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L539" t="inlineStr">
         <is>
@@ -23836,7 +23836,7 @@
         <v>1911</v>
       </c>
       <c r="K540" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L540" t="inlineStr">
         <is>
@@ -23878,7 +23878,7 @@
         <v>1904</v>
       </c>
       <c r="K541" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L541" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>1911</v>
       </c>
       <c r="K542" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L542" t="inlineStr">
         <is>
@@ -23962,7 +23962,7 @@
         <v>1922</v>
       </c>
       <c r="K543" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L543" t="inlineStr">
         <is>
@@ -24004,7 +24004,7 @@
         <v>1911</v>
       </c>
       <c r="K544" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L544" t="inlineStr">
         <is>
@@ -24046,7 +24046,7 @@
         <v>1911</v>
       </c>
       <c r="K545" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L545" t="inlineStr">
         <is>
@@ -24088,7 +24088,7 @@
         <v>1924</v>
       </c>
       <c r="K546" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L546" t="inlineStr">
         <is>
@@ -24130,7 +24130,7 @@
         <v>1931</v>
       </c>
       <c r="K547" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L547" t="inlineStr">
         <is>
@@ -24172,7 +24172,7 @@
         <v>1913</v>
       </c>
       <c r="K548" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L548" t="inlineStr">
         <is>
@@ -24214,7 +24214,7 @@
         <v>1920</v>
       </c>
       <c r="K549" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L549" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>1920</v>
       </c>
       <c r="K550" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L550" t="inlineStr">
         <is>
@@ -24302,7 +24302,7 @@
         <v>1926</v>
       </c>
       <c r="K551" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L551" t="inlineStr">
         <is>
@@ -24348,7 +24348,7 @@
         <v>1922</v>
       </c>
       <c r="K552" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L552" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>1927</v>
       </c>
       <c r="K553" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L553" t="inlineStr">
         <is>
@@ -24432,7 +24432,7 @@
         <v>1914</v>
       </c>
       <c r="K554" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L554" t="inlineStr">
         <is>
@@ -24474,7 +24474,7 @@
         <v>1922</v>
       </c>
       <c r="K555" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L555" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>1922</v>
       </c>
       <c r="K556" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L556" t="inlineStr">
         <is>
@@ -24558,7 +24558,7 @@
         <v>1931</v>
       </c>
       <c r="K557" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L557" t="inlineStr">
         <is>
@@ -24600,7 +24600,7 @@
         <v>1918</v>
       </c>
       <c r="K558" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L558" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>1928</v>
       </c>
       <c r="K559" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L559" t="inlineStr">
         <is>
@@ -24684,7 +24684,7 @@
         <v>1930</v>
       </c>
       <c r="K560" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L560" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>1914</v>
       </c>
       <c r="K561" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L561" t="inlineStr">
         <is>
@@ -24768,7 +24768,7 @@
         <v>1931</v>
       </c>
       <c r="K562" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L562" t="inlineStr">
         <is>
@@ -24810,7 +24810,7 @@
         <v>1931</v>
       </c>
       <c r="K563" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L563" t="inlineStr">
         <is>
@@ -24852,7 +24852,7 @@
         <v>1929</v>
       </c>
       <c r="K564" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L564" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>1936</v>
       </c>
       <c r="K565" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L565" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>1928</v>
       </c>
       <c r="K566" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L566" t="inlineStr">
         <is>
@@ -24978,7 +24978,7 @@
         <v>1925</v>
       </c>
       <c r="K567" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L567" t="inlineStr">
         <is>
@@ -25020,7 +25020,7 @@
         <v>1918</v>
       </c>
       <c r="K568" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L568" t="inlineStr">
         <is>
@@ -25062,7 +25062,7 @@
         <v>1927</v>
       </c>
       <c r="K569" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L569" t="inlineStr">
         <is>
@@ -25108,7 +25108,7 @@
         <v>1918</v>
       </c>
       <c r="K570" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L570" t="inlineStr">
         <is>
@@ -25150,7 +25150,7 @@
         <v>1921</v>
       </c>
       <c r="K571" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L571" t="inlineStr">
         <is>
@@ -25196,7 +25196,7 @@
         <v>1924</v>
       </c>
       <c r="K572" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L572" t="inlineStr">
         <is>
@@ -25238,7 +25238,7 @@
         <v>1923</v>
       </c>
       <c r="K573" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L573" t="inlineStr">
         <is>
@@ -25288,7 +25288,7 @@
         <v>1931</v>
       </c>
       <c r="K574" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L574" t="inlineStr">
         <is>
@@ -25330,7 +25330,7 @@
         <v>1930</v>
       </c>
       <c r="K575" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L575" t="inlineStr">
         <is>
@@ -25372,7 +25372,7 @@
         <v>1913</v>
       </c>
       <c r="K576" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L576" t="inlineStr">
         <is>
@@ -25414,7 +25414,7 @@
         <v>1925</v>
       </c>
       <c r="K577" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L577" t="inlineStr">
         <is>
@@ -25456,7 +25456,7 @@
         <v>1927</v>
       </c>
       <c r="K578" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L578" t="inlineStr">
         <is>
@@ -25498,7 +25498,7 @@
         <v>1920</v>
       </c>
       <c r="K579" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L579" t="inlineStr">
         <is>
@@ -25544,7 +25544,7 @@
         <v>1926</v>
       </c>
       <c r="K580" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L580" t="inlineStr">
         <is>
@@ -25590,7 +25590,7 @@
         <v>1922</v>
       </c>
       <c r="K581" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L581" t="inlineStr">
         <is>
@@ -25632,7 +25632,7 @@
         <v>1927</v>
       </c>
       <c r="K582" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L582" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>1914</v>
       </c>
       <c r="K583" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L583" t="inlineStr">
         <is>
@@ -25716,7 +25716,7 @@
         <v>1922</v>
       </c>
       <c r="K584" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L584" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>1931</v>
       </c>
       <c r="K585" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L585" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>1928</v>
       </c>
       <c r="K586" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L586" t="inlineStr">
         <is>
@@ -25842,7 +25842,7 @@
         <v>1930</v>
       </c>
       <c r="K587" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L587" t="inlineStr">
         <is>
@@ -25884,7 +25884,7 @@
         <v>1914</v>
       </c>
       <c r="K588" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L588" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>1931</v>
       </c>
       <c r="K589" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L589" t="inlineStr">
         <is>
@@ -25968,7 +25968,7 @@
         <v>1931</v>
       </c>
       <c r="K590" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L590" t="inlineStr">
         <is>
@@ -26014,7 +26014,7 @@
         <v>1929</v>
       </c>
       <c r="K591" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L591" t="inlineStr">
         <is>
@@ -26056,7 +26056,7 @@
         <v>1936</v>
       </c>
       <c r="K592" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L592" t="inlineStr">
         <is>
@@ -26098,7 +26098,7 @@
         <v>1918</v>
       </c>
       <c r="K593" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L593" t="inlineStr">
         <is>
@@ -26140,7 +26140,7 @@
         <v>1927</v>
       </c>
       <c r="K594" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L594" t="inlineStr">
         <is>
@@ -26190,7 +26190,7 @@
         <v>1918</v>
       </c>
       <c r="K595" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L595" t="inlineStr">
         <is>
@@ -26232,7 +26232,7 @@
         <v>1921</v>
       </c>
       <c r="K596" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L596" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         <v>1924</v>
       </c>
       <c r="K597" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L597" t="inlineStr">
         <is>
@@ -26320,7 +26320,7 @@
         <v>1923</v>
       </c>
       <c r="K598" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L598" t="inlineStr">
         <is>
@@ -26366,7 +26366,7 @@
         <v>1931</v>
       </c>
       <c r="K599" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L599" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>1930</v>
       </c>
       <c r="K600" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L600" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>1913</v>
       </c>
       <c r="K601" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L601" t="inlineStr">
         <is>
@@ -26492,7 +26492,7 @@
         <v>1925</v>
       </c>
       <c r="K602" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L602" t="inlineStr">
         <is>
@@ -26534,7 +26534,7 @@
         <v>1927</v>
       </c>
       <c r="K603" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L603" t="inlineStr">
         <is>
@@ -26576,7 +26576,7 @@
         <v>1928</v>
       </c>
       <c r="K604" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L604" t="inlineStr">
         <is>
@@ -26618,7 +26618,7 @@
         <v>1921</v>
       </c>
       <c r="K605" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L605" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>1922</v>
       </c>
       <c r="K606" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L606" t="inlineStr">
         <is>
@@ -26706,7 +26706,7 @@
         <v>1936</v>
       </c>
       <c r="K607" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L607" t="inlineStr">
         <is>
@@ -26748,7 +26748,7 @@
         <v>1916</v>
       </c>
       <c r="K608" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L608" t="inlineStr">
         <is>
@@ -26802,7 +26802,7 @@
         <v>1911</v>
       </c>
       <c r="K609" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L609" t="inlineStr">
         <is>
@@ -26844,7 +26844,7 @@
         <v>1925</v>
       </c>
       <c r="K610" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L610" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>1920</v>
       </c>
       <c r="K611" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L611" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>1937</v>
       </c>
       <c r="K612" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L612" t="inlineStr">
         <is>
@@ -26970,7 +26970,7 @@
         <v>1930</v>
       </c>
       <c r="K613" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L613" t="inlineStr">
         <is>
@@ -27012,7 +27012,7 @@
         <v>1933</v>
       </c>
       <c r="K614" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L614" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>1935</v>
       </c>
       <c r="K615" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L615" t="inlineStr">
         <is>
@@ -27100,7 +27100,7 @@
         <v>1931</v>
       </c>
       <c r="K616" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L616" t="inlineStr">
         <is>
@@ -27146,7 +27146,7 @@
         <v>1928</v>
       </c>
       <c r="K617" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L617" t="inlineStr">
         <is>
@@ -27188,7 +27188,7 @@
         <v>1931</v>
       </c>
       <c r="K618" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L618" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>1915</v>
       </c>
       <c r="K619" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L619" t="inlineStr">
         <is>
@@ -27272,7 +27272,7 @@
         <v>1924</v>
       </c>
       <c r="K620" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L620" t="inlineStr">
         <is>
@@ -27314,7 +27314,7 @@
         <v>1922</v>
       </c>
       <c r="K621" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L621" t="inlineStr">
         <is>
@@ -27356,7 +27356,7 @@
         <v>1918</v>
       </c>
       <c r="K622" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L622" t="inlineStr">
         <is>
@@ -27398,7 +27398,7 @@
         <v>1929</v>
       </c>
       <c r="K623" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L623" t="inlineStr">
         <is>
@@ -27440,7 +27440,7 @@
         <v>1916</v>
       </c>
       <c r="K624" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L624" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>1940</v>
       </c>
       <c r="K625" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L625" t="inlineStr">
         <is>
@@ -27524,7 +27524,7 @@
         <v>1940</v>
       </c>
       <c r="K626" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L626" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>1923</v>
       </c>
       <c r="K627" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L627" t="inlineStr">
         <is>
@@ -27608,7 +27608,7 @@
         <v>1917</v>
       </c>
       <c r="K628" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L628" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>1919</v>
       </c>
       <c r="K629" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L629" t="inlineStr">
         <is>
@@ -27692,7 +27692,7 @@
         <v>1926</v>
       </c>
       <c r="K630" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L630" t="inlineStr">
         <is>
@@ -27734,7 +27734,7 @@
         <v>1937</v>
       </c>
       <c r="K631" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L631" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>1938</v>
       </c>
       <c r="K632" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L632" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>1942</v>
       </c>
       <c r="K633" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L633" t="inlineStr">
         <is>
@@ -27860,7 +27860,7 @@
         <v>1924</v>
       </c>
       <c r="K634" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L634" t="inlineStr">
         <is>
@@ -27902,7 +27902,7 @@
         <v>1939</v>
       </c>
       <c r="K635" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L635" t="inlineStr">
         <is>
@@ -27944,7 +27944,7 @@
         <v>1926</v>
       </c>
       <c r="K636" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L636" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>1916</v>
       </c>
       <c r="K637" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L637" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>1930</v>
       </c>
       <c r="K638" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L638" t="inlineStr">
         <is>
@@ -28070,7 +28070,7 @@
         <v>1939</v>
       </c>
       <c r="K639" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L639" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>1924</v>
       </c>
       <c r="K640" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L640" t="inlineStr">
         <is>
@@ -28158,7 +28158,7 @@
         <v>1929</v>
       </c>
       <c r="K641" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L641" t="inlineStr">
         <is>
@@ -28200,7 +28200,7 @@
         <v>1928</v>
       </c>
       <c r="K642" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L642" t="inlineStr">
         <is>
@@ -28246,7 +28246,7 @@
         <v>1913</v>
       </c>
       <c r="K643" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L643" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>1922</v>
       </c>
       <c r="K644" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L644" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>1929</v>
       </c>
       <c r="K645" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L645" t="inlineStr">
         <is>
@@ -28384,7 +28384,7 @@
         <v>1915</v>
       </c>
       <c r="K646" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L646" t="inlineStr">
         <is>
@@ -28426,7 +28426,7 @@
         <v>1930</v>
       </c>
       <c r="K647" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L647" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>1924</v>
       </c>
       <c r="K648" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L648" t="inlineStr">
         <is>
@@ -28514,7 +28514,7 @@
         <v>1930</v>
       </c>
       <c r="K649" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L649" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>1928</v>
       </c>
       <c r="K650" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L650" t="inlineStr">
         <is>
@@ -28602,7 +28602,7 @@
         <v>1922</v>
       </c>
       <c r="K651" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L651" t="inlineStr">
         <is>
@@ -28652,7 +28652,7 @@
         <v>1926</v>
       </c>
       <c r="K652" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L652" t="inlineStr">
         <is>
@@ -28698,7 +28698,7 @@
         <v>1925</v>
       </c>
       <c r="K653" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L653" t="inlineStr">
         <is>
@@ -28740,7 +28740,7 @@
         <v>1931</v>
       </c>
       <c r="K654" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L654" t="inlineStr">
         <is>
@@ -28786,7 +28786,7 @@
         <v>1931</v>
       </c>
       <c r="K655" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L655" t="inlineStr">
         <is>
@@ -28832,7 +28832,7 @@
         <v>1924</v>
       </c>
       <c r="K656" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L656" t="inlineStr">
         <is>
@@ -28874,7 +28874,7 @@
         <v>1921</v>
       </c>
       <c r="K657" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L657" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>1928</v>
       </c>
       <c r="K658" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L658" t="inlineStr">
         <is>
@@ -28970,7 +28970,7 @@
         <v>1929</v>
       </c>
       <c r="K659" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L659" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>1936</v>
       </c>
       <c r="K660" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L660" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>1933</v>
       </c>
       <c r="K661" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L661" t="inlineStr">
         <is>
@@ -29104,7 +29104,7 @@
         <v>1933</v>
       </c>
       <c r="K662" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L662" t="inlineStr">
         <is>
@@ -29150,7 +29150,7 @@
         <v>1930</v>
       </c>
       <c r="K663" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L663" t="inlineStr">
         <is>
@@ -29196,7 +29196,7 @@
         <v>1941</v>
       </c>
       <c r="K664" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L664" t="inlineStr">
         <is>
@@ -29238,7 +29238,7 @@
         <v>1923</v>
       </c>
       <c r="K665" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L665" t="inlineStr">
         <is>
@@ -29280,7 +29280,7 @@
         <v>1933</v>
       </c>
       <c r="K666" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L666" t="inlineStr">
         <is>
@@ -29330,7 +29330,7 @@
         <v>1926</v>
       </c>
       <c r="K667" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L667" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>1932</v>
       </c>
       <c r="K668" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L668" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>1932</v>
       </c>
       <c r="K669" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L669" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>1926</v>
       </c>
       <c r="K670" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L670" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>1930</v>
       </c>
       <c r="K671" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L671" t="inlineStr">
         <is>
@@ -29560,7 +29560,7 @@
         <v>1930</v>
       </c>
       <c r="K672" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L672" t="inlineStr">
         <is>
@@ -29602,7 +29602,7 @@
         <v>1941</v>
       </c>
       <c r="K673" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L673" t="inlineStr">
         <is>
@@ -29644,7 +29644,7 @@
         <v>1928</v>
       </c>
       <c r="K674" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L674" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>1926</v>
       </c>
       <c r="K675" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L675" t="inlineStr">
         <is>
@@ -29736,7 +29736,7 @@
         <v>1925</v>
       </c>
       <c r="K676" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L676" t="inlineStr">
         <is>
@@ -29778,7 +29778,7 @@
         <v>1927</v>
       </c>
       <c r="K677" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L677" t="inlineStr">
         <is>
@@ -29820,7 +29820,7 @@
         <v>1929</v>
       </c>
       <c r="K678" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L678" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>1933</v>
       </c>
       <c r="K679" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L679" t="inlineStr">
         <is>
@@ -29904,7 +29904,7 @@
         <v>1936</v>
       </c>
       <c r="K680" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L680" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>1931</v>
       </c>
       <c r="K681" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L681" t="inlineStr">
         <is>
@@ -29992,7 +29992,7 @@
         <v>1930</v>
       </c>
       <c r="K682" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L682" t="inlineStr">
         <is>
@@ -30034,7 +30034,7 @@
         <v>1937</v>
       </c>
       <c r="K683" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L683" t="inlineStr">
         <is>
@@ -30076,7 +30076,7 @@
         <v>1939</v>
       </c>
       <c r="K684" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L684" t="inlineStr">
         <is>
@@ -30118,7 +30118,7 @@
         <v>1931</v>
       </c>
       <c r="K685" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L685" t="inlineStr">
         <is>
@@ -30160,7 +30160,7 @@
         <v>1934</v>
       </c>
       <c r="K686" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L686" t="inlineStr">
         <is>
@@ -30202,7 +30202,7 @@
         <v>1928</v>
       </c>
       <c r="K687" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L687" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>1928</v>
       </c>
       <c r="K688" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L688" t="inlineStr">
         <is>
@@ -30286,7 +30286,7 @@
         <v>1946</v>
       </c>
       <c r="K689" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L689" t="inlineStr">
         <is>
@@ -30328,7 +30328,7 @@
         <v>1937</v>
       </c>
       <c r="K690" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L690" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>1931</v>
       </c>
       <c r="K691" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L691" t="inlineStr">
         <is>
@@ -30412,7 +30412,7 @@
         <v>1936</v>
       </c>
       <c r="K692" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L692" t="inlineStr">
         <is>
@@ -30454,7 +30454,7 @@
         <v>1937</v>
       </c>
       <c r="K693" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L693" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>1922</v>
       </c>
       <c r="K694" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L694" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>1931</v>
       </c>
       <c r="K695" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L695" t="inlineStr">
         <is>
@@ -30580,7 +30580,7 @@
         <v>1946</v>
       </c>
       <c r="K696" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L696" t="inlineStr">
         <is>
@@ -30622,7 +30622,7 @@
         <v>1934</v>
       </c>
       <c r="K697" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L697" t="inlineStr">
         <is>
@@ -30664,7 +30664,7 @@
         <v>1926</v>
       </c>
       <c r="K698" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L698" t="inlineStr">
         <is>
@@ -30706,7 +30706,7 @@
         <v>1939</v>
       </c>
       <c r="K699" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L699" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>1919</v>
       </c>
       <c r="K700" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L700" t="inlineStr">
         <is>
@@ -30798,7 +30798,7 @@
         <v>1931</v>
       </c>
       <c r="K701" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L701" t="inlineStr">
         <is>
@@ -30840,7 +30840,7 @@
         <v>1938</v>
       </c>
       <c r="K702" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L702" t="inlineStr">
         <is>
@@ -30882,7 +30882,7 @@
         <v>1924</v>
       </c>
       <c r="K703" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L703" t="inlineStr">
         <is>
@@ -30924,7 +30924,7 @@
         <v>1927</v>
       </c>
       <c r="K704" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L704" t="inlineStr">
         <is>
@@ -30966,7 +30966,7 @@
         <v>1945</v>
       </c>
       <c r="K705" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L705" t="inlineStr">
         <is>
@@ -31008,7 +31008,7 @@
         <v>1940</v>
       </c>
       <c r="K706" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L706" t="inlineStr">
         <is>
@@ -31050,7 +31050,7 @@
         <v>1925</v>
       </c>
       <c r="K707" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L707" t="inlineStr">
         <is>
@@ -31092,7 +31092,7 @@
         <v>1945</v>
       </c>
       <c r="K708" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L708" t="inlineStr">
         <is>
@@ -31134,7 +31134,7 @@
         <v>1939</v>
       </c>
       <c r="K709" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L709" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>1929</v>
       </c>
       <c r="K710" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L710" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>1931</v>
       </c>
       <c r="K711" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L711" t="inlineStr">
         <is>
@@ -31264,7 +31264,7 @@
         <v>1930</v>
       </c>
       <c r="K712" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L712" t="inlineStr">
         <is>
@@ -31306,7 +31306,7 @@
         <v>1927</v>
       </c>
       <c r="K713" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L713" t="inlineStr">
         <is>
@@ -31348,7 +31348,7 @@
         <v>1939</v>
       </c>
       <c r="K714" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L714" t="inlineStr">
         <is>
@@ -31394,7 +31394,7 @@
         <v>1931</v>
       </c>
       <c r="K715" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L715" t="inlineStr">
         <is>
@@ -31436,7 +31436,7 @@
         <v>1933</v>
       </c>
       <c r="K716" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L716" t="inlineStr">
         <is>
@@ -31478,7 +31478,7 @@
         <v>1928</v>
       </c>
       <c r="K717" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L717" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>1928</v>
       </c>
       <c r="K718" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L718" t="inlineStr">
         <is>
@@ -31562,7 +31562,7 @@
         <v>1937</v>
       </c>
       <c r="K719" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L719" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>1931</v>
       </c>
       <c r="K720" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L720" t="inlineStr">
         <is>
@@ -31646,7 +31646,7 @@
         <v>1936</v>
       </c>
       <c r="K721" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L721" t="inlineStr">
         <is>
@@ -31688,7 +31688,7 @@
         <v>1922</v>
       </c>
       <c r="K722" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L722" t="inlineStr">
         <is>
@@ -31730,7 +31730,7 @@
         <v>1946</v>
       </c>
       <c r="K723" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L723" t="inlineStr">
         <is>
@@ -31776,7 +31776,7 @@
         <v>1926</v>
       </c>
       <c r="K724" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L724" t="inlineStr">
         <is>
@@ -31818,7 +31818,7 @@
         <v>1939</v>
       </c>
       <c r="K725" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L725" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>1931</v>
       </c>
       <c r="K726" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L726" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>1930</v>
       </c>
       <c r="K727" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L727" t="inlineStr">
         <is>
@@ -31948,7 +31948,7 @@
         <v>1927</v>
       </c>
       <c r="K728" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L728" t="inlineStr">
         <is>
@@ -31994,7 +31994,7 @@
         <v>1925</v>
       </c>
       <c r="K729" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L729" t="inlineStr">
         <is>
@@ -32036,7 +32036,7 @@
         <v>1945</v>
       </c>
       <c r="K730" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L730" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>1939</v>
       </c>
       <c r="K731" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L731" t="inlineStr">
         <is>
@@ -32120,7 +32120,7 @@
         <v>1927</v>
       </c>
       <c r="K732" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L732" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>1936</v>
       </c>
       <c r="K733" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L733" t="inlineStr">
         <is>
@@ -32204,7 +32204,7 @@
         <v>1943</v>
       </c>
       <c r="K734" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L734" t="inlineStr">
         <is>
@@ -32246,7 +32246,7 @@
         <v>1930</v>
       </c>
       <c r="K735" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L735" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>1939</v>
       </c>
       <c r="K736" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L736" t="inlineStr">
         <is>
@@ -32330,7 +32330,7 @@
         <v>1942</v>
       </c>
       <c r="K737" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L737" t="inlineStr">
         <is>
@@ -32372,7 +32372,7 @@
         <v>1936</v>
       </c>
       <c r="K738" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L738" t="inlineStr">
         <is>
@@ -32414,7 +32414,7 @@
         <v>1931</v>
       </c>
       <c r="K739" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L739" t="inlineStr">
         <is>
@@ -32456,7 +32456,7 @@
         <v>1944</v>
       </c>
       <c r="K740" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L740" t="inlineStr">
         <is>
@@ -32498,7 +32498,7 @@
         <v>1948</v>
       </c>
       <c r="K741" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L741" t="inlineStr">
         <is>
@@ -32540,7 +32540,7 @@
         <v>1933</v>
       </c>
       <c r="K742" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L742" t="inlineStr">
         <is>
@@ -32586,7 +32586,7 @@
         <v>1931</v>
       </c>
       <c r="K743" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L743" t="inlineStr">
         <is>
@@ -32628,7 +32628,7 @@
         <v>1928</v>
       </c>
       <c r="K744" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L744" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>1933</v>
       </c>
       <c r="K745" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L745" t="inlineStr">
         <is>
@@ -32712,7 +32712,7 @@
         <v>1933</v>
       </c>
       <c r="K746" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L746" t="inlineStr">
         <is>
@@ -32758,7 +32758,7 @@
         <v>1930</v>
       </c>
       <c r="K747" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L747" t="inlineStr">
         <is>
@@ -32800,7 +32800,7 @@
         <v>1936</v>
       </c>
       <c r="K748" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L748" t="inlineStr">
         <is>
@@ -32842,7 +32842,7 @@
         <v>1933</v>
       </c>
       <c r="K749" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L749" t="inlineStr">
         <is>
@@ -32884,7 +32884,7 @@
         <v>1934</v>
       </c>
       <c r="K750" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L750" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>1926</v>
       </c>
       <c r="K751" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L751" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>1939</v>
       </c>
       <c r="K752" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L752" t="inlineStr">
         <is>
@@ -33014,7 +33014,7 @@
         <v>1927</v>
       </c>
       <c r="K753" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L753" t="inlineStr">
         <is>
@@ -33056,7 +33056,7 @@
         <v>1927</v>
       </c>
       <c r="K754" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L754" t="inlineStr">
         <is>
@@ -33098,7 +33098,7 @@
         <v>1930</v>
       </c>
       <c r="K755" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L755" t="inlineStr">
         <is>
@@ -33140,7 +33140,7 @@
         <v>1930</v>
       </c>
       <c r="K756" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L756" t="inlineStr">
         <is>
@@ -33182,7 +33182,7 @@
         <v>1941</v>
       </c>
       <c r="K757" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L757" t="inlineStr">
         <is>
@@ -33224,7 +33224,7 @@
         <v>1931</v>
       </c>
       <c r="K758" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L758" t="inlineStr">
         <is>
@@ -33266,7 +33266,7 @@
         <v>1927</v>
       </c>
       <c r="K759" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L759" t="inlineStr">
         <is>
@@ -33308,7 +33308,7 @@
         <v>1939</v>
       </c>
       <c r="K760" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L760" t="inlineStr">
         <is>
@@ -33350,7 +33350,7 @@
         <v>1929</v>
       </c>
       <c r="K761" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L761" t="inlineStr">
         <is>
@@ -33392,7 +33392,7 @@
         <v>1939</v>
       </c>
       <c r="K762" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L762" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>1945</v>
       </c>
       <c r="K763" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L763" t="inlineStr">
         <is>
@@ -33476,7 +33476,7 @@
         <v>1941</v>
       </c>
       <c r="K764" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L764" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>1944</v>
       </c>
       <c r="K765" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L765" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>1944</v>
       </c>
       <c r="K766" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L766" t="inlineStr">
         <is>
@@ -33602,7 +33602,7 @@
         <v>1930</v>
       </c>
       <c r="K767" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L767" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>1939</v>
       </c>
       <c r="K768" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L768" t="inlineStr">
         <is>
@@ -33690,7 +33690,7 @@
         <v>1936</v>
       </c>
       <c r="K769" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L769" t="inlineStr">
         <is>
@@ -33732,7 +33732,7 @@
         <v>1931</v>
       </c>
       <c r="K770" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L770" t="inlineStr">
         <is>
@@ -33774,7 +33774,7 @@
         <v>1950</v>
       </c>
       <c r="K771" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L771" t="inlineStr">
         <is>
@@ -33816,7 +33816,7 @@
         <v>1948</v>
       </c>
       <c r="K772" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L772" t="inlineStr">
         <is>
@@ -33862,7 +33862,7 @@
         <v>1944</v>
       </c>
       <c r="K773" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L773" t="inlineStr">
         <is>
@@ -33904,7 +33904,7 @@
         <v>1933</v>
       </c>
       <c r="K774" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L774" t="inlineStr">
         <is>
@@ -33950,7 +33950,7 @@
         <v>1931</v>
       </c>
       <c r="K775" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L775" t="inlineStr">
         <is>
@@ -33996,7 +33996,7 @@
         <v>1933</v>
       </c>
       <c r="K776" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L776" t="inlineStr">
         <is>
@@ -34038,7 +34038,7 @@
         <v>1933</v>
       </c>
       <c r="K777" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L777" t="inlineStr">
         <is>
@@ -34080,7 +34080,7 @@
         <v>1936</v>
       </c>
       <c r="K778" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L778" t="inlineStr">
         <is>
@@ -34122,7 +34122,7 @@
         <v>1933</v>
       </c>
       <c r="K779" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L779" t="inlineStr">
         <is>
@@ -34176,7 +34176,7 @@
         <v>1926</v>
       </c>
       <c r="K780" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L780" t="inlineStr">
         <is>
@@ -34218,7 +34218,7 @@
         <v>1939</v>
       </c>
       <c r="K781" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L781" t="inlineStr">
         <is>
@@ -34264,7 +34264,7 @@
         <v>1931</v>
       </c>
       <c r="K782" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L782" t="inlineStr">
         <is>
@@ -34314,7 +34314,7 @@
         <v>1930</v>
       </c>
       <c r="K783" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L783" t="inlineStr">
         <is>
@@ -34356,7 +34356,7 @@
         <v>1941</v>
       </c>
       <c r="K784" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L784" t="inlineStr">
         <is>
@@ -34398,7 +34398,7 @@
         <v>1931</v>
       </c>
       <c r="K785" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L785" t="inlineStr">
         <is>
@@ -34444,7 +34444,7 @@
         <v>1934</v>
       </c>
       <c r="K786" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L786" t="inlineStr">
         <is>
@@ -34486,7 +34486,7 @@
         <v>1943</v>
       </c>
       <c r="K787" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L787" t="inlineStr">
         <is>
@@ -34528,7 +34528,7 @@
         <v>1939</v>
       </c>
       <c r="K788" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L788" t="inlineStr">
         <is>
@@ -34570,7 +34570,7 @@
         <v>1929</v>
       </c>
       <c r="K789" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L789" t="inlineStr">
         <is>
@@ -34612,7 +34612,7 @@
         <v>1945</v>
       </c>
       <c r="K790" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L790" t="inlineStr">
         <is>
@@ -34654,7 +34654,7 @@
         <v>1951</v>
       </c>
       <c r="K791" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L791" t="inlineStr">
         <is>
@@ -34700,7 +34700,7 @@
         <v>1938</v>
       </c>
       <c r="K792" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L792" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
         <v>1944</v>
       </c>
       <c r="K793" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L793" t="inlineStr">
         <is>
@@ -34788,7 +34788,7 @@
         <v>1930</v>
       </c>
       <c r="K794" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L794" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>1938</v>
       </c>
       <c r="K795" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L795" t="inlineStr">
         <is>
@@ -34880,7 +34880,7 @@
         <v>1950</v>
       </c>
       <c r="K796" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L796" t="inlineStr">
         <is>
@@ -34926,7 +34926,7 @@
         <v>1945</v>
       </c>
       <c r="K797" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L797" t="inlineStr">
         <is>
@@ -34968,7 +34968,7 @@
         <v>1947</v>
       </c>
       <c r="K798" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L798" t="inlineStr">
         <is>
@@ -35014,7 +35014,7 @@
         <v>1928</v>
       </c>
       <c r="K799" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L799" t="inlineStr">
         <is>
@@ -35056,7 +35056,7 @@
         <v>1933</v>
       </c>
       <c r="K800" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L800" t="inlineStr">
         <is>
@@ -35098,7 +35098,7 @@
         <v>1942</v>
       </c>
       <c r="K801" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L801" t="inlineStr">
         <is>
@@ -35140,7 +35140,7 @@
         <v>1940</v>
       </c>
       <c r="K802" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L802" t="inlineStr">
         <is>
@@ -35182,7 +35182,7 @@
         <v>1934</v>
       </c>
       <c r="K803" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L803" t="inlineStr">
         <is>
@@ -35224,7 +35224,7 @@
         <v>1944</v>
       </c>
       <c r="K804" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L804" t="inlineStr">
         <is>
@@ -35266,7 +35266,7 @@
         <v>1944</v>
       </c>
       <c r="K805" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L805" t="inlineStr">
         <is>
@@ -35308,7 +35308,7 @@
         <v>1933</v>
       </c>
       <c r="K806" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L806" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>1943</v>
       </c>
       <c r="K807" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L807" t="inlineStr">
         <is>
@@ -35392,7 +35392,7 @@
         <v>1952</v>
       </c>
       <c r="K808" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L808" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>1947</v>
       </c>
       <c r="K809" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L809" t="inlineStr">
         <is>
@@ -35476,7 +35476,7 @@
         <v>1936</v>
       </c>
       <c r="K810" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L810" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>1937</v>
       </c>
       <c r="K811" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L811" t="inlineStr">
         <is>
@@ -35560,7 +35560,7 @@
         <v>1931</v>
       </c>
       <c r="K812" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L812" t="inlineStr">
         <is>
@@ -35606,7 +35606,7 @@
         <v>1946</v>
       </c>
       <c r="K813" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L813" t="inlineStr">
         <is>
@@ -35652,7 +35652,7 @@
         <v>1940</v>
       </c>
       <c r="K814" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L814" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>1931</v>
       </c>
       <c r="K815" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L815" t="inlineStr">
         <is>
@@ -35736,7 +35736,7 @@
         <v>1930</v>
       </c>
       <c r="K816" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L816" t="inlineStr">
         <is>
@@ -35782,7 +35782,7 @@
         <v>1934</v>
       </c>
       <c r="K817" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L817" t="inlineStr">
         <is>
@@ -35824,7 +35824,7 @@
         <v>1934</v>
       </c>
       <c r="K818" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L818" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>1944</v>
       </c>
       <c r="K819" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L819" t="inlineStr">
         <is>
@@ -35920,7 +35920,7 @@
         <v>1939</v>
       </c>
       <c r="K820" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L820" t="inlineStr">
         <is>
@@ -35966,7 +35966,7 @@
         <v>1938</v>
       </c>
       <c r="K821" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L821" t="inlineStr">
         <is>
@@ -36008,7 +36008,7 @@
         <v>1951</v>
       </c>
       <c r="K822" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L822" t="inlineStr">
         <is>
@@ -36050,7 +36050,7 @@
         <v>1933</v>
       </c>
       <c r="K823" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L823" t="inlineStr">
         <is>
@@ -36092,7 +36092,7 @@
         <v>1956</v>
       </c>
       <c r="K824" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L824" t="inlineStr">
         <is>
@@ -36134,7 +36134,7 @@
         <v>1947</v>
       </c>
       <c r="K825" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L825" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>1950</v>
       </c>
       <c r="K826" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L826" t="inlineStr">
         <is>
@@ -36218,7 +36218,7 @@
         <v>1942</v>
       </c>
       <c r="K827" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L827" t="inlineStr">
         <is>
@@ -36260,7 +36260,7 @@
         <v>1932</v>
       </c>
       <c r="K828" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L828" t="inlineStr">
         <is>
@@ -36306,7 +36306,7 @@
         <v>1951</v>
       </c>
       <c r="K829" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L829" t="inlineStr">
         <is>
@@ -36348,7 +36348,7 @@
         <v>1945</v>
       </c>
       <c r="K830" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L830" t="inlineStr">
         <is>
@@ -36394,7 +36394,7 @@
         <v>1945</v>
       </c>
       <c r="K831" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L831" t="inlineStr">
         <is>
@@ -36436,7 +36436,7 @@
         <v>1948</v>
       </c>
       <c r="K832" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L832" t="inlineStr">
         <is>
@@ -36478,7 +36478,7 @@
         <v>1938</v>
       </c>
       <c r="K833" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L833" t="inlineStr">
         <is>
@@ -36520,7 +36520,7 @@
         <v>1943</v>
       </c>
       <c r="K834" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L834" t="inlineStr">
         <is>
@@ -36562,7 +36562,7 @@
         <v>1955</v>
       </c>
       <c r="K835" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L835" t="inlineStr">
         <is>
@@ -36608,7 +36608,7 @@
         <v>1952</v>
       </c>
       <c r="K836" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L836" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>1943</v>
       </c>
       <c r="K837" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L837" t="inlineStr">
         <is>
@@ -36700,7 +36700,7 @@
         <v>1931</v>
       </c>
       <c r="K838" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L838" t="inlineStr">
         <is>
@@ -36742,7 +36742,7 @@
         <v>1949</v>
       </c>
       <c r="K839" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L839" t="inlineStr">
         <is>
@@ -36784,7 +36784,7 @@
         <v>1940</v>
       </c>
       <c r="K840" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L840" t="inlineStr">
         <is>
@@ -36826,7 +36826,7 @@
         <v>1947</v>
       </c>
       <c r="K841" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L841" t="inlineStr">
         <is>
@@ -36868,7 +36868,7 @@
         <v>1936</v>
       </c>
       <c r="K842" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L842" t="inlineStr">
         <is>
@@ -36910,7 +36910,7 @@
         <v>1939</v>
       </c>
       <c r="K843" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L843" t="inlineStr">
         <is>
@@ -36952,7 +36952,7 @@
         <v>1942</v>
       </c>
       <c r="K844" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L844" t="inlineStr">
         <is>
@@ -36994,7 +36994,7 @@
         <v>1956</v>
       </c>
       <c r="K845" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L845" t="inlineStr">
         <is>
@@ -37036,7 +37036,7 @@
         <v>1944</v>
       </c>
       <c r="K846" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L846" t="inlineStr">
         <is>
@@ -37078,7 +37078,7 @@
         <v>1950</v>
       </c>
       <c r="K847" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L847" t="inlineStr">
         <is>
@@ -37120,7 +37120,7 @@
         <v>1938</v>
       </c>
       <c r="K848" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L848" t="inlineStr">
         <is>
@@ -37162,7 +37162,7 @@
         <v>1948</v>
       </c>
       <c r="K849" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L849" t="inlineStr">
         <is>
@@ -37204,7 +37204,7 @@
         <v>1949</v>
       </c>
       <c r="K850" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L850" t="inlineStr">
         <is>
@@ -37250,7 +37250,7 @@
         <v>1950</v>
       </c>
       <c r="K851" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L851" t="inlineStr">
         <is>
@@ -37292,7 +37292,7 @@
         <v>1944</v>
       </c>
       <c r="K852" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L852" t="inlineStr">
         <is>
@@ -37334,7 +37334,7 @@
         <v>1947</v>
       </c>
       <c r="K853" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L853" t="inlineStr">
         <is>
@@ -37376,7 +37376,7 @@
         <v>1957</v>
       </c>
       <c r="K854" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L854" t="inlineStr">
         <is>
@@ -37418,7 +37418,7 @@
         <v>1940</v>
       </c>
       <c r="K855" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L855" t="inlineStr">
         <is>
@@ -37464,7 +37464,7 @@
         <v>1932</v>
       </c>
       <c r="K856" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L856" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>1947</v>
       </c>
       <c r="K857" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L857" t="inlineStr">
         <is>
@@ -37548,7 +37548,7 @@
         <v>1956</v>
       </c>
       <c r="K858" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L858" t="inlineStr">
         <is>
@@ -37594,7 +37594,7 @@
         <v>1948</v>
       </c>
       <c r="K859" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L859" t="inlineStr">
         <is>
@@ -37636,7 +37636,7 @@
         <v>1955</v>
       </c>
       <c r="K860" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L860" t="inlineStr">
         <is>
@@ -37678,7 +37678,7 @@
         <v>1952</v>
       </c>
       <c r="K861" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L861" t="inlineStr">
         <is>
@@ -37720,7 +37720,7 @@
         <v>1955</v>
       </c>
       <c r="K862" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L862" t="inlineStr">
         <is>
@@ -37762,7 +37762,7 @@
         <v>1952</v>
       </c>
       <c r="K863" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L863" t="inlineStr">
         <is>
@@ -37804,7 +37804,7 @@
         <v>1945</v>
       </c>
       <c r="K864" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L864" t="inlineStr">
         <is>
@@ -37846,7 +37846,7 @@
         <v>1952</v>
       </c>
       <c r="K865" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L865" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>1956</v>
       </c>
       <c r="K866" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L866" t="inlineStr">
         <is>
@@ -37930,7 +37930,7 @@
         <v>1950</v>
       </c>
       <c r="K867" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L867" t="inlineStr">
         <is>
@@ -37972,7 +37972,7 @@
         <v>1956</v>
       </c>
       <c r="K868" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L868" t="inlineStr">
         <is>
@@ -38014,7 +38014,7 @@
         <v>1940</v>
       </c>
       <c r="K869" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L869" t="inlineStr">
         <is>
@@ -38056,7 +38056,7 @@
         <v>1951</v>
       </c>
       <c r="K870" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L870" t="inlineStr">
         <is>
@@ -38098,7 +38098,7 @@
         <v>1947</v>
       </c>
       <c r="K871" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L871" t="inlineStr">
         <is>
@@ -38140,7 +38140,7 @@
         <v>1949</v>
       </c>
       <c r="K872" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L872" t="inlineStr">
         <is>
@@ -38190,7 +38190,7 @@
         <v>1943</v>
       </c>
       <c r="K873" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L873" t="inlineStr">
         <is>
@@ -38232,7 +38232,7 @@
         <v>1937</v>
       </c>
       <c r="K874" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L874" t="inlineStr">
         <is>
@@ -38274,7 +38274,7 @@
         <v>1951</v>
       </c>
       <c r="K875" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L875" t="inlineStr">
         <is>
@@ -38316,7 +38316,7 @@
         <v>1958</v>
       </c>
       <c r="K876" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L876" t="inlineStr">
         <is>
@@ -38358,7 +38358,7 @@
         <v>1947</v>
       </c>
       <c r="K877" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L877" t="inlineStr">
         <is>
@@ -38404,7 +38404,7 @@
         <v>1954</v>
       </c>
       <c r="K878" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L878" t="inlineStr">
         <is>
@@ -38446,7 +38446,7 @@
         <v>1944</v>
       </c>
       <c r="K879" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L879" t="inlineStr">
         <is>
@@ -38488,7 +38488,7 @@
         <v>1938</v>
       </c>
       <c r="K880" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L880" t="inlineStr">
         <is>
@@ -38530,7 +38530,7 @@
         <v>1963</v>
       </c>
       <c r="K881" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L881" t="inlineStr">
         <is>
@@ -38576,7 +38576,7 @@
         <v>1955</v>
       </c>
       <c r="K882" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L882" t="inlineStr">
         <is>
@@ -38618,7 +38618,7 @@
         <v>1950</v>
       </c>
       <c r="K883" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L883" t="inlineStr">
         <is>
@@ -38660,7 +38660,7 @@
         <v>1961</v>
       </c>
       <c r="K884" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L884" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>1960</v>
       </c>
       <c r="K885" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L885" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>1944</v>
       </c>
       <c r="K886" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L886" t="inlineStr">
         <is>
@@ -38786,7 +38786,7 @@
         <v>1951</v>
       </c>
       <c r="K887" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L887" t="inlineStr">
         <is>
@@ -38828,7 +38828,7 @@
         <v>1951</v>
       </c>
       <c r="K888" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L888" t="inlineStr">
         <is>
@@ -38870,7 +38870,7 @@
         <v>1957</v>
       </c>
       <c r="K889" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L889" t="inlineStr">
         <is>
@@ -38912,7 +38912,7 @@
         <v>1949</v>
       </c>
       <c r="K890" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L890" t="inlineStr">
         <is>
@@ -38958,7 +38958,7 @@
         <v>1944</v>
       </c>
       <c r="K891" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L891" t="inlineStr">
         <is>
@@ -39000,7 +39000,7 @@
         <v>1956</v>
       </c>
       <c r="K892" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L892" t="inlineStr">
         <is>
@@ -39046,7 +39046,7 @@
         <v>1956</v>
       </c>
       <c r="K893" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L893" t="inlineStr">
         <is>
@@ -39092,7 +39092,7 @@
         <v>1952</v>
       </c>
       <c r="K894" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L894" t="inlineStr">
         <is>
@@ -39134,7 +39134,7 @@
         <v>1951</v>
       </c>
       <c r="K895" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L895" t="inlineStr">
         <is>
@@ -39176,7 +39176,7 @@
         <v>1948</v>
       </c>
       <c r="K896" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L896" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>1948</v>
       </c>
       <c r="K897" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L897" t="inlineStr">
         <is>
@@ -39260,7 +39260,7 @@
         <v>1944</v>
       </c>
       <c r="K898" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L898" t="inlineStr">
         <is>
@@ -39306,7 +39306,7 @@
         <v>1951</v>
       </c>
       <c r="K899" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L899" t="inlineStr">
         <is>
@@ -39348,7 +39348,7 @@
         <v>1969</v>
       </c>
       <c r="K900" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L900" t="inlineStr">
         <is>
@@ -39390,7 +39390,7 @@
         <v>1955</v>
       </c>
       <c r="K901" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L901" t="inlineStr">
         <is>
@@ -39432,7 +39432,7 @@
         <v>1949</v>
       </c>
       <c r="K902" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L902" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>1967</v>
       </c>
       <c r="K903" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L903" t="inlineStr">
         <is>
@@ -39516,7 +39516,7 @@
         <v>1970</v>
       </c>
       <c r="K904" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L904" t="inlineStr">
         <is>
@@ -39558,7 +39558,7 @@
         <v>1957</v>
       </c>
       <c r="K905" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L905" t="inlineStr">
         <is>
@@ -39600,7 +39600,7 @@
         <v>1948</v>
       </c>
       <c r="K906" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L906" t="inlineStr">
         <is>
@@ -39642,7 +39642,7 @@
         <v>1951</v>
       </c>
       <c r="K907" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L907" t="inlineStr">
         <is>
@@ -39684,7 +39684,7 @@
         <v>1942</v>
       </c>
       <c r="K908" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L908" t="inlineStr">
         <is>
@@ -39730,7 +39730,7 @@
         <v>1949</v>
       </c>
       <c r="K909" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L909" t="inlineStr">
         <is>
@@ -39772,7 +39772,7 @@
         <v>1959</v>
       </c>
       <c r="K910" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L910" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>1955</v>
       </c>
       <c r="K911" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L911" t="inlineStr">
         <is>
@@ -39856,7 +39856,7 @@
         <v>1950</v>
       </c>
       <c r="K912" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L912" t="inlineStr">
         <is>
@@ -39898,7 +39898,7 @@
         <v>1965</v>
       </c>
       <c r="K913" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L913" t="inlineStr">
         <is>
@@ -39940,7 +39940,7 @@
         <v>1961</v>
       </c>
       <c r="K914" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L914" t="inlineStr">
         <is>
@@ -39982,7 +39982,7 @@
         <v>1960</v>
       </c>
       <c r="K915" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L915" t="inlineStr">
         <is>
@@ -40024,7 +40024,7 @@
         <v>1963</v>
       </c>
       <c r="K916" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L916" t="inlineStr">
         <is>
@@ -40066,7 +40066,7 @@
         <v>1951</v>
       </c>
       <c r="K917" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L917" t="inlineStr">
         <is>
@@ -40108,7 +40108,7 @@
         <v>1957</v>
       </c>
       <c r="K918" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L918" t="inlineStr">
         <is>
@@ -40150,7 +40150,7 @@
         <v>1937</v>
       </c>
       <c r="K919" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L919" t="inlineStr">
         <is>
@@ -40196,7 +40196,7 @@
         <v>1949</v>
       </c>
       <c r="K920" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L920" t="inlineStr">
         <is>
@@ -40238,7 +40238,7 @@
         <v>1956</v>
       </c>
       <c r="K921" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L921" t="inlineStr">
         <is>
@@ -40284,7 +40284,7 @@
         <v>1952</v>
       </c>
       <c r="K922" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L922" t="inlineStr">
         <is>
@@ -40326,7 +40326,7 @@
         <v>1956</v>
       </c>
       <c r="K923" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L923" t="inlineStr">
         <is>
@@ -40368,7 +40368,7 @@
         <v>1952</v>
       </c>
       <c r="K924" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L924" t="inlineStr">
         <is>
@@ -40410,7 +40410,7 @@
         <v>1947</v>
       </c>
       <c r="K925" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L925" t="inlineStr">
         <is>
@@ -40452,7 +40452,7 @@
         <v>1948</v>
       </c>
       <c r="K926" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L926" t="inlineStr">
         <is>
@@ -40494,7 +40494,7 @@
         <v>1951</v>
       </c>
       <c r="K927" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L927" t="inlineStr">
         <is>
@@ -40536,7 +40536,7 @@
         <v>1969</v>
       </c>
       <c r="K928" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L928" t="inlineStr">
         <is>
@@ -40578,7 +40578,7 @@
         <v>1968</v>
       </c>
       <c r="K929" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L929" t="inlineStr">
         <is>
@@ -40620,7 +40620,7 @@
         <v>1944</v>
       </c>
       <c r="K930" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L930" t="inlineStr">
         <is>
@@ -40666,7 +40666,7 @@
         <v>1937</v>
       </c>
       <c r="K931" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L931" t="inlineStr">
         <is>
@@ -40708,7 +40708,7 @@
         <v>1949</v>
       </c>
       <c r="K932" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L932" t="inlineStr">
         <is>
@@ -40754,7 +40754,7 @@
         <v>1967</v>
       </c>
       <c r="K933" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L933" t="inlineStr">
         <is>
@@ -40796,7 +40796,7 @@
         <v>1968</v>
       </c>
       <c r="K934" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L934" t="inlineStr">
         <is>
@@ -40838,7 +40838,7 @@
         <v>1970</v>
       </c>
       <c r="K935" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L935" t="inlineStr">
         <is>
@@ -40880,7 +40880,7 @@
         <v>1948</v>
       </c>
       <c r="K936" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L936" t="inlineStr">
         <is>
@@ -40922,7 +40922,7 @@
         <v>1951</v>
       </c>
       <c r="K937" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L937" t="inlineStr">
         <is>
@@ -40964,7 +40964,7 @@
         <v>1955</v>
       </c>
       <c r="K938" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L938" t="inlineStr">
         <is>
@@ -41006,7 +41006,7 @@
         <v>1942</v>
       </c>
       <c r="K939" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L939" t="inlineStr">
         <is>
@@ -41052,7 +41052,7 @@
         <v>1957</v>
       </c>
       <c r="K940" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L940" t="inlineStr">
         <is>
@@ -41094,7 +41094,7 @@
         <v>1955</v>
       </c>
       <c r="K941" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L941" t="inlineStr">
         <is>
@@ -41136,7 +41136,7 @@
         <v>1950</v>
       </c>
       <c r="K942" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L942" t="inlineStr">
         <is>
@@ -41178,7 +41178,7 @@
         <v>1960</v>
       </c>
       <c r="K943" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L943" t="inlineStr">
         <is>
@@ -41220,7 +41220,7 @@
         <v>1963</v>
       </c>
       <c r="K944" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L944" t="inlineStr">
         <is>
@@ -41262,7 +41262,7 @@
         <v>1951</v>
       </c>
       <c r="K945" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L945" t="inlineStr">
         <is>
@@ -41304,7 +41304,7 @@
         <v>1957</v>
       </c>
       <c r="K946" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L946" t="inlineStr">
         <is>
@@ -41346,7 +41346,7 @@
         <v>1937</v>
       </c>
       <c r="K947" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L947" t="inlineStr">
         <is>
@@ -41388,7 +41388,7 @@
         <v>1950</v>
       </c>
       <c r="K948" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L948" t="inlineStr">
         <is>
@@ -41430,7 +41430,7 @@
         <v>1956</v>
       </c>
       <c r="K949" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L949" t="inlineStr">
         <is>
@@ -41472,7 +41472,7 @@
         <v>1942</v>
       </c>
       <c r="K950" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L950" t="inlineStr">
         <is>
@@ -41518,7 +41518,7 @@
         <v>1952</v>
       </c>
       <c r="K951" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L951" t="inlineStr">
         <is>
@@ -41560,7 +41560,7 @@
         <v>1956</v>
       </c>
       <c r="K952" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L952" t="inlineStr">
         <is>
@@ -41602,7 +41602,7 @@
         <v>1952</v>
       </c>
       <c r="K953" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L953" t="inlineStr">
         <is>
@@ -41644,7 +41644,7 @@
         <v>1947</v>
       </c>
       <c r="K954" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L954" t="inlineStr">
         <is>
@@ -41686,7 +41686,7 @@
         <v>1951</v>
       </c>
       <c r="K955" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L955" t="inlineStr">
         <is>
@@ -41728,7 +41728,7 @@
         <v>1969</v>
       </c>
       <c r="K956" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L956" t="inlineStr">
         <is>
@@ -41770,7 +41770,7 @@
         <v>1968</v>
       </c>
       <c r="K957" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L957" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>1944</v>
       </c>
       <c r="K958" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L958" t="inlineStr">
         <is>
@@ -41858,7 +41858,7 @@
         <v>1949</v>
       </c>
       <c r="K959" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L959" t="inlineStr">
         <is>
@@ -41900,7 +41900,7 @@
         <v>1970</v>
       </c>
       <c r="K960" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L960" t="inlineStr">
         <is>
@@ -41942,7 +41942,7 @@
         <v>1948</v>
       </c>
       <c r="K961" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L961" t="inlineStr">
         <is>
@@ -41984,7 +41984,7 @@
         <v>1951</v>
       </c>
       <c r="K962" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L962" t="inlineStr">
         <is>
@@ -42034,7 +42034,7 @@
         <v>1955</v>
       </c>
       <c r="K963" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L963" t="inlineStr">
         <is>
@@ -42076,7 +42076,7 @@
         <v>1942</v>
       </c>
       <c r="K964" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L964" t="inlineStr">
         <is>
@@ -42118,7 +42118,7 @@
         <v>1961</v>
       </c>
       <c r="K965" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L965" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>1962</v>
       </c>
       <c r="K966" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L966" t="inlineStr">
         <is>
@@ -42210,7 +42210,7 @@
         <v>1977</v>
       </c>
       <c r="K967" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L967" t="inlineStr">
         <is>
@@ -42252,7 +42252,7 @@
         <v>1958</v>
       </c>
       <c r="K968" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L968" t="inlineStr">
         <is>
@@ -42294,7 +42294,7 @@
         <v>1973</v>
       </c>
       <c r="K969" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L969" t="inlineStr">
         <is>
@@ -42336,7 +42336,7 @@
         <v>1951</v>
       </c>
       <c r="K970" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L970" t="inlineStr">
         <is>
@@ -42378,7 +42378,7 @@
         <v>1958</v>
       </c>
       <c r="K971" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L971" t="inlineStr">
         <is>
@@ -42424,7 +42424,7 @@
         <v>1950</v>
       </c>
       <c r="K972" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L972" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>1952</v>
       </c>
       <c r="K973" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L973" t="inlineStr">
         <is>
@@ -42508,7 +42508,7 @@
         <v>1951</v>
       </c>
       <c r="K974" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L974" t="inlineStr">
         <is>
@@ -42550,7 +42550,7 @@
         <v>1956</v>
       </c>
       <c r="K975" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L975" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         <v>1961</v>
       </c>
       <c r="K976" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L976" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>1957</v>
       </c>
       <c r="K977" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L977" t="inlineStr">
         <is>
@@ -42676,7 +42676,7 @@
         <v>1955</v>
       </c>
       <c r="K978" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L978" t="inlineStr">
         <is>
@@ -42722,7 +42722,7 @@
         <v>1949</v>
       </c>
       <c r="K979" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L979" t="inlineStr">
         <is>
@@ -42764,7 +42764,7 @@
         <v>1949</v>
       </c>
       <c r="K980" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L980" t="inlineStr">
         <is>
@@ -42806,7 +42806,7 @@
         <v>1969</v>
       </c>
       <c r="K981" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L981" t="inlineStr">
         <is>
@@ -42848,7 +42848,7 @@
         <v>1961</v>
       </c>
       <c r="K982" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L982" t="inlineStr">
         <is>
@@ -42890,7 +42890,7 @@
         <v>1957</v>
       </c>
       <c r="K983" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L983" t="inlineStr">
         <is>
@@ -42932,7 +42932,7 @@
         <v>1968</v>
       </c>
       <c r="K984" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L984" t="inlineStr">
         <is>
@@ -42978,7 +42978,7 @@
         <v>1969</v>
       </c>
       <c r="K985" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L985" t="inlineStr">
         <is>
@@ -43020,7 +43020,7 @@
         <v>1957</v>
       </c>
       <c r="K986" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L986" t="inlineStr">
         <is>
@@ -43062,7 +43062,7 @@
         <v>1949</v>
       </c>
       <c r="K987" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L987" t="inlineStr">
         <is>
@@ -43108,7 +43108,7 @@
         <v>1961</v>
       </c>
       <c r="K988" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L988" t="inlineStr">
         <is>
@@ -43154,7 +43154,7 @@
         <v>1956</v>
       </c>
       <c r="K989" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L989" t="inlineStr">
         <is>
@@ -43196,7 +43196,7 @@
         <v>1968</v>
       </c>
       <c r="K990" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L990" t="inlineStr">
         <is>
@@ -43238,7 +43238,7 @@
         <v>1948</v>
       </c>
       <c r="K991" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L991" t="inlineStr">
         <is>
@@ -43280,7 +43280,7 @@
         <v>1971</v>
       </c>
       <c r="K992" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L992" t="inlineStr">
         <is>
@@ -43326,7 +43326,7 @@
         <v>1960</v>
       </c>
       <c r="K993" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L993" t="inlineStr">
         <is>
@@ -43372,7 +43372,7 @@
         <v>1963</v>
       </c>
       <c r="K994" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L994" t="inlineStr">
         <is>
@@ -43414,7 +43414,7 @@
         <v>1951</v>
       </c>
       <c r="K995" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L995" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>1953</v>
       </c>
       <c r="K996" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L996" t="inlineStr">
         <is>
@@ -43498,7 +43498,7 @@
         <v>1945</v>
       </c>
       <c r="K997" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L997" t="inlineStr">
         <is>
@@ -43540,7 +43540,7 @@
         <v>1964</v>
       </c>
       <c r="K998" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L998" t="inlineStr">
         <is>
@@ -43582,7 +43582,7 @@
         <v>1967</v>
       </c>
       <c r="K999" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L999" t="inlineStr">
         <is>
@@ -43624,7 +43624,7 @@
         <v>1958</v>
       </c>
       <c r="K1000" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1000" t="inlineStr">
         <is>
@@ -43670,7 +43670,7 @@
         <v>1951</v>
       </c>
       <c r="K1001" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1001" t="inlineStr">
         <is>
@@ -43712,7 +43712,7 @@
         <v>1969</v>
       </c>
       <c r="K1002" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1002" t="inlineStr">
         <is>
@@ -43754,7 +43754,7 @@
         <v>1947</v>
       </c>
       <c r="K1003" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1003" t="inlineStr">
         <is>
@@ -43796,7 +43796,7 @@
         <v>1952</v>
       </c>
       <c r="K1004" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1004" t="inlineStr">
         <is>
@@ -43838,7 +43838,7 @@
         <v>1944</v>
       </c>
       <c r="K1005" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1005" t="inlineStr">
         <is>
@@ -43880,7 +43880,7 @@
         <v>1969</v>
       </c>
       <c r="K1006" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1006" t="inlineStr">
         <is>
@@ -43922,7 +43922,7 @@
         <v>1956</v>
       </c>
       <c r="K1007" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1007" t="inlineStr">
         <is>
@@ -43964,7 +43964,7 @@
         <v>1966</v>
       </c>
       <c r="K1008" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1008" t="inlineStr">
         <is>
@@ -44006,7 +44006,7 @@
         <v>1961</v>
       </c>
       <c r="K1009" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1009" t="inlineStr">
         <is>
@@ -44048,7 +44048,7 @@
         <v>1967</v>
       </c>
       <c r="K1010" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1010" t="inlineStr">
         <is>
@@ -44090,7 +44090,7 @@
         <v>1953</v>
       </c>
       <c r="K1011" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1011" t="inlineStr">
         <is>
@@ -44136,7 +44136,7 @@
         <v>1956</v>
       </c>
       <c r="K1012" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1012" t="inlineStr">
         <is>
@@ -44178,7 +44178,7 @@
         <v>1970</v>
       </c>
       <c r="K1013" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1013" t="inlineStr">
         <is>
@@ -44220,7 +44220,7 @@
         <v>1963</v>
       </c>
       <c r="K1014" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1014" t="inlineStr">
         <is>
@@ -44262,7 +44262,7 @@
         <v>1948</v>
       </c>
       <c r="K1015" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1015" t="inlineStr">
         <is>
@@ -44304,7 +44304,7 @@
         <v>1969</v>
       </c>
       <c r="K1016" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1016" t="inlineStr">
         <is>
@@ -44346,7 +44346,7 @@
         <v>1958</v>
       </c>
       <c r="K1017" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1017" t="inlineStr">
         <is>
@@ -44388,7 +44388,7 @@
         <v>1966</v>
       </c>
       <c r="K1018" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1018" t="inlineStr">
         <is>
@@ -44430,7 +44430,7 @@
         <v>1961</v>
       </c>
       <c r="K1019" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1019" t="inlineStr">
         <is>
@@ -44476,7 +44476,7 @@
         <v>1981</v>
       </c>
       <c r="K1020" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1020" t="inlineStr">
         <is>
@@ -44522,7 +44522,7 @@
         <v>1974</v>
       </c>
       <c r="K1021" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1021" t="inlineStr">
         <is>
@@ -44568,7 +44568,7 @@
         <v>1957</v>
       </c>
       <c r="K1022" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1022" t="inlineStr">
         <is>
@@ -44610,7 +44610,7 @@
         <v>1964</v>
       </c>
       <c r="K1023" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1023" t="inlineStr">
         <is>
@@ -44652,7 +44652,7 @@
         <v>1963</v>
       </c>
       <c r="K1024" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1024" t="inlineStr">
         <is>
@@ -44694,7 +44694,7 @@
         <v>1961</v>
       </c>
       <c r="K1025" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1025" t="inlineStr">
         <is>
@@ -44736,7 +44736,7 @@
         <v>1967</v>
       </c>
       <c r="K1026" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1026" t="inlineStr">
         <is>
@@ -44778,7 +44778,7 @@
         <v>1958</v>
       </c>
       <c r="K1027" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1027" t="inlineStr">
         <is>
@@ -44820,7 +44820,7 @@
         <v>1952</v>
       </c>
       <c r="K1028" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1028" t="inlineStr">
         <is>
@@ -44862,7 +44862,7 @@
         <v>1944</v>
       </c>
       <c r="K1029" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1029" t="inlineStr">
         <is>
@@ -44904,7 +44904,7 @@
         <v>1973</v>
       </c>
       <c r="K1030" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1030" t="inlineStr">
         <is>
@@ -44946,7 +44946,7 @@
         <v>1966</v>
       </c>
       <c r="K1031" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1031" t="inlineStr">
         <is>
@@ -44988,7 +44988,7 @@
         <v>1957</v>
       </c>
       <c r="K1032" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1032" t="inlineStr">
         <is>
@@ -45030,7 +45030,7 @@
         <v>1962</v>
       </c>
       <c r="K1033" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1033" t="inlineStr">
         <is>
@@ -45072,7 +45072,7 @@
         <v>1967</v>
       </c>
       <c r="K1034" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1034" t="inlineStr">
         <is>
@@ -45114,7 +45114,7 @@
         <v>1978</v>
       </c>
       <c r="K1035" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1035" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>1956</v>
       </c>
       <c r="K1036" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1036" t="inlineStr">
         <is>
@@ -45198,7 +45198,7 @@
         <v>1970</v>
       </c>
       <c r="K1037" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1037" t="inlineStr">
         <is>
@@ -45240,7 +45240,7 @@
         <v>1975</v>
       </c>
       <c r="K1038" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1038" t="inlineStr">
         <is>
@@ -45286,7 +45286,7 @@
         <v>1971</v>
       </c>
       <c r="K1039" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1039" t="inlineStr">
         <is>
@@ -45340,7 +45340,7 @@
         <v>1964</v>
       </c>
       <c r="K1040" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1040" t="inlineStr">
         <is>
@@ -45382,7 +45382,7 @@
         <v>1962</v>
       </c>
       <c r="K1041" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1041" t="inlineStr">
         <is>
@@ -45424,7 +45424,7 @@
         <v>1968</v>
       </c>
       <c r="K1042" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1042" t="inlineStr">
         <is>
@@ -45470,7 +45470,7 @@
         <v>1977</v>
       </c>
       <c r="K1043" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1043" t="inlineStr">
         <is>
@@ -45512,7 +45512,7 @@
         <v>1946</v>
       </c>
       <c r="K1044" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1044" t="inlineStr">
         <is>
@@ -45554,7 +45554,7 @@
         <v>1961</v>
       </c>
       <c r="K1045" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1045" t="inlineStr">
         <is>
@@ -45600,7 +45600,7 @@
         <v>1962</v>
       </c>
       <c r="K1046" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1046" t="inlineStr">
         <is>
@@ -45646,7 +45646,7 @@
         <v>1977</v>
       </c>
       <c r="K1047" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1047" t="inlineStr">
         <is>
@@ -45688,7 +45688,7 @@
         <v>1951</v>
       </c>
       <c r="K1048" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L1048" t="inlineStr">
         <is>
@@ -45730,7 +45730,7 @@
         <v>1963</v>
       </c>
       <c r="K1049" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1049" t="inlineStr">
         <is>
@@ -45772,7 +45772,7 @@
         <v>1977</v>
       </c>
       <c r="K1050" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1050" t="inlineStr">
         <is>
@@ -45818,7 +45818,7 @@
         <v>1963</v>
       </c>
       <c r="K1051" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1051" t="inlineStr">
         <is>
@@ -45860,7 +45860,7 @@
         <v>1986</v>
       </c>
       <c r="K1052" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L1052" t="inlineStr">
         <is>
@@ -45902,7 +45902,7 @@
         <v>1977</v>
       </c>
       <c r="K1053" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1053" t="inlineStr">
         <is>
@@ -45944,7 +45944,7 @@
         <v>1963</v>
       </c>
       <c r="K1054" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1054" t="inlineStr">
         <is>
@@ -45990,7 +45990,7 @@
         <v>1959</v>
       </c>
       <c r="K1055" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1055" t="inlineStr">
         <is>
@@ -46032,7 +46032,7 @@
         <v>1969</v>
       </c>
       <c r="K1056" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1056" t="inlineStr">
         <is>
@@ -46074,7 +46074,7 @@
         <v>1963</v>
       </c>
       <c r="K1057" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1057" t="inlineStr">
         <is>
@@ -46116,7 +46116,7 @@
         <v>1952</v>
       </c>
       <c r="K1058" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1058" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>1977</v>
       </c>
       <c r="K1059" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1059" t="inlineStr">
         <is>
@@ -46200,7 +46200,7 @@
         <v>1966</v>
       </c>
       <c r="K1060" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L1060" t="inlineStr">
         <is>
@@ -46254,7 +46254,7 @@
         <v>1967</v>
       </c>
       <c r="K1061" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1061" t="inlineStr">
         <is>
@@ -46296,7 +46296,7 @@
         <v>1969</v>
       </c>
       <c r="K1062" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1062" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>1967</v>
       </c>
       <c r="K1063" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1063" t="inlineStr">
         <is>
@@ -46380,7 +46380,7 @@
         <v>1956</v>
       </c>
       <c r="K1064" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1064" t="inlineStr">
         <is>
@@ -46422,7 +46422,7 @@
         <v>1970</v>
       </c>
       <c r="K1065" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1065" t="inlineStr">
         <is>
@@ -46464,7 +46464,7 @@
         <v>1968</v>
       </c>
       <c r="K1066" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1066" t="inlineStr">
         <is>
@@ -46506,7 +46506,7 @@
         <v>1963</v>
       </c>
       <c r="K1067" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1067" t="inlineStr">
         <is>
@@ -46556,7 +46556,7 @@
         <v>1971</v>
       </c>
       <c r="K1068" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1068" t="inlineStr">
         <is>
@@ -46598,7 +46598,7 @@
         <v>1975</v>
       </c>
       <c r="K1069" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1069" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>1961</v>
       </c>
       <c r="K1070" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1070" t="inlineStr">
         <is>
@@ -46694,7 +46694,7 @@
         <v>1964</v>
       </c>
       <c r="K1071" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1071" t="inlineStr">
         <is>
@@ -46736,7 +46736,7 @@
         <v>1973</v>
       </c>
       <c r="K1072" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1072" t="inlineStr">
         <is>
@@ -46786,7 +46786,7 @@
         <v>1973</v>
       </c>
       <c r="K1073" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1073" t="inlineStr">
         <is>
@@ -46832,7 +46832,7 @@
         <v>1974</v>
       </c>
       <c r="K1074" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1074" t="inlineStr">
         <is>
@@ -46878,7 +46878,7 @@
         <v>1948</v>
       </c>
       <c r="K1075" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1075" t="inlineStr">
         <is>
@@ -46920,7 +46920,7 @@
         <v>1975</v>
       </c>
       <c r="K1076" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1076" t="inlineStr">
         <is>
@@ -46966,7 +46966,7 @@
         <v>1977</v>
       </c>
       <c r="K1077" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1077" t="inlineStr">
         <is>
@@ -47008,7 +47008,7 @@
         <v>1968</v>
       </c>
       <c r="K1078" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1078" t="inlineStr">
         <is>
@@ -47050,7 +47050,7 @@
         <v>1964</v>
       </c>
       <c r="K1079" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1079" t="inlineStr">
         <is>
@@ -47092,7 +47092,7 @@
         <v>1977</v>
       </c>
       <c r="K1080" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1080" t="inlineStr">
         <is>
@@ -47134,7 +47134,7 @@
         <v>1973</v>
       </c>
       <c r="K1081" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L1081" t="inlineStr">
         <is>
@@ -47176,7 +47176,7 @@
         <v>1980</v>
       </c>
       <c r="K1082" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1082" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>1958</v>
       </c>
       <c r="K1083" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L1083" t="inlineStr">
         <is>
@@ -47260,7 +47260,7 @@
         <v>1986</v>
       </c>
       <c r="K1084" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1084" t="inlineStr">
         <is>
@@ -47302,7 +47302,7 @@
         <v>1977</v>
       </c>
       <c r="K1085" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1085" t="inlineStr">
         <is>
@@ -47344,7 +47344,7 @@
         <v>1965</v>
       </c>
       <c r="K1086" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1086" t="inlineStr">
         <is>
@@ -47386,7 +47386,7 @@
         <v>1959</v>
       </c>
       <c r="K1087" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L1087" t="inlineStr">
         <is>
@@ -47428,7 +47428,7 @@
         <v>1964</v>
       </c>
       <c r="K1088" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1088" t="inlineStr">
         <is>
@@ -47470,7 +47470,7 @@
         <v>1972</v>
       </c>
       <c r="K1089" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L1089" t="inlineStr">
         <is>
@@ -47512,7 +47512,7 @@
         <v>1977</v>
       </c>
       <c r="K1090" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1090" t="inlineStr">
         <is>
@@ -47554,7 +47554,7 @@
         <v>1963</v>
       </c>
       <c r="K1091" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1091" t="inlineStr">
         <is>
@@ -47596,7 +47596,7 @@
         <v>1962</v>
       </c>
       <c r="K1092" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1092" t="inlineStr">
         <is>
@@ -47638,7 +47638,7 @@
         <v>1977</v>
       </c>
       <c r="K1093" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L1093" t="inlineStr">
         <is>
@@ -47680,7 +47680,7 @@
         <v>1967</v>
       </c>
       <c r="K1094" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1094" t="inlineStr">
         <is>
@@ -47722,7 +47722,7 @@
         <v>1968</v>
       </c>
       <c r="K1095" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1095" t="inlineStr">
         <is>
@@ -47764,7 +47764,7 @@
         <v>1983</v>
       </c>
       <c r="K1096" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L1096" t="inlineStr">
         <is>
@@ -47806,7 +47806,7 @@
         <v>1990</v>
       </c>
       <c r="K1097" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1097" t="inlineStr">
         <is>
@@ -47848,7 +47848,7 @@
         <v>1969</v>
       </c>
       <c r="K1098" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1098" t="inlineStr">
         <is>
@@ -47890,7 +47890,7 @@
         <v>1967</v>
       </c>
       <c r="K1099" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1099" t="inlineStr">
         <is>
@@ -47932,7 +47932,7 @@
         <v>1960</v>
       </c>
       <c r="K1100" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1100" t="inlineStr">
         <is>
@@ -47974,7 +47974,7 @@
         <v>1964</v>
       </c>
       <c r="K1101" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L1101" t="inlineStr">
         <is>
@@ -48016,7 +48016,7 @@
         <v>1987</v>
       </c>
       <c r="K1102" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1102" t="inlineStr">
         <is>
@@ -48058,7 +48058,7 @@
         <v>1960</v>
       </c>
       <c r="K1103" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L1103" t="inlineStr">
         <is>
@@ -48100,7 +48100,7 @@
         <v>1961</v>
       </c>
       <c r="K1104" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L1104" t="inlineStr">
         <is>
@@ -48142,7 +48142,7 @@
         <v>1982</v>
       </c>
       <c r="K1105" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1105" t="inlineStr">
         <is>
@@ -48184,7 +48184,7 @@
         <v>1975</v>
       </c>
       <c r="K1106" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1106" t="inlineStr">
         <is>
